--- a/2.PreliminaryDesign/订餐测试用例.xlsx
+++ b/2.PreliminaryDesign/订餐测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>功能描述</t>
   </si>
@@ -27,7 +27,7 @@
     <t>用例目的</t>
   </si>
   <si>
-    <t>用户每日订餐</t>
+    <t>用户加班需要订餐</t>
   </si>
   <si>
     <t>前提条件</t>
@@ -52,11 +52,44 @@
 按钮显示：确定加餐+1</t>
   </si>
   <si>
-    <t>按下“确定加餐+1”按钮</t>
+    <t>五点前按下“确定加餐+1”按钮</t>
   </si>
   <si>
     <t>状态显示：已加餐
 按钮显示：取消加餐-1</t>
+  </si>
+  <si>
+    <t>五点后按下“确定加餐+1”按钮</t>
+  </si>
+  <si>
+    <t>界面没有任何反应</t>
+  </si>
+  <si>
+    <t>取消订餐</t>
+  </si>
+  <si>
+    <t>用户取消今日订餐</t>
+  </si>
+  <si>
+    <t>用户登录成功，且今日已订餐，点击“今日订餐”模块</t>
+  </si>
+  <si>
+    <t>五点前按下“取消加餐-1”按钮</t>
+  </si>
+  <si>
+    <t>五点后按下“取消加餐-1”按钮</t>
+  </si>
+  <si>
+    <t>产生打扫人员</t>
+  </si>
+  <si>
+    <t>管理员每日生成打扫人员</t>
+  </si>
+  <si>
+    <t>管理员登录成功，且今日已订餐，点击“今日订餐”模块</t>
+  </si>
+  <si>
+    <t>按下“取消加餐-1”按钮</t>
   </si>
 </sst>
 </file>
@@ -69,9 +102,24 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -534,163 +582,181 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1040,13 +1106,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
@@ -1055,187 +1121,270 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:4">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:4">
-      <c r="A5" s="3" t="s">
+    <row r="5" ht="50" customHeight="1" spans="1:4">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" ht="27" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" ht="50" customHeight="1" spans="1:4">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" ht="50" customHeight="1" spans="1:4">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" ht="30" customHeight="1" spans="1:4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="1:4">
+      <c r="A9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:4">
+      <c r="A10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:4">
+      <c r="A11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="1:4">
+      <c r="A12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" ht="50" customHeight="1" spans="1:4">
+      <c r="A13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" ht="50" customHeight="1" spans="1:4">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" customFormat="1" ht="50" customHeight="1" spans="1:4">
+      <c r="A15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="50" customHeight="1" spans="1:4">
+      <c r="A21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="50" customHeight="1" spans="1:4">
+      <c r="A22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="33">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -1243,14 +1392,15 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
@@ -1266,6 +1416,8 @@
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2.PreliminaryDesign/订餐测试用例.xlsx
+++ b/2.PreliminaryDesign/订餐测试用例.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="订餐" sheetId="1" r:id="rId1"/>
+    <sheet name="取消订餐" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>功能描述</t>
   </si>
@@ -65,6 +65,25 @@
     <t>界面没有任何反应</t>
   </si>
   <si>
+    <t>测试用户同一天多次订餐</t>
+  </si>
+  <si>
+    <t>用户打开两个窗口并登录成功，且今日未订餐，点击“今日订餐”模块</t>
+  </si>
+  <si>
+    <t>第一个窗口五点前按下“确定加餐+1”按钮</t>
+  </si>
+  <si>
+    <t>第一个窗口状态显示：已加餐
+按钮显示：取消加餐-1</t>
+  </si>
+  <si>
+    <t>第二个窗口五点前按下“确定加餐+1”按钮</t>
+  </si>
+  <si>
+    <t>第二个窗口弹出提示框显示  “您今日已订餐”</t>
+  </si>
+  <si>
     <t>取消订餐</t>
   </si>
   <si>
@@ -80,16 +99,20 @@
     <t>五点后按下“取消加餐-1”按钮</t>
   </si>
   <si>
-    <t>产生打扫人员</t>
-  </si>
-  <si>
-    <t>管理员每日生成打扫人员</t>
-  </si>
-  <si>
-    <t>管理员登录成功，且今日已订餐，点击“今日订餐”模块</t>
-  </si>
-  <si>
-    <t>按下“取消加餐-1”按钮</t>
+    <t>用户打开两个窗口并登录成功，且今日已订餐，点击“今日订餐”模块</t>
+  </si>
+  <si>
+    <t>第一个窗口五点前按下“取消加餐-1”按钮</t>
+  </si>
+  <si>
+    <t>第一个窗口状态显示：未加餐
+按钮显示：确定加餐+1</t>
+  </si>
+  <si>
+    <t>第二个窗口五点前按下“取消加餐-1”按钮</t>
+  </si>
+  <si>
+    <t>第二个窗口弹框显示“您今日还未订餐”</t>
   </si>
 </sst>
 </file>
@@ -97,21 +120,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -126,6 +142,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -134,7 +157,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,15 +186,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,8 +217,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,17 +243,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,58 +266,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -298,49 +314,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,133 +486,215 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="22">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="-0.25"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="-0.25"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="-0.25"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.25"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="-0.25"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="-0.25"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.25"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="-0.25"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="-0.25"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.25"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="-0.25"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,6 +703,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,60 +752,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -572,6 +766,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -582,181 +785,226 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1106,318 +1354,399 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="B1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="1.75" style="19" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="19" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="34" style="19" customWidth="1"/>
+    <col min="5" max="5" width="36.375" style="19" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="12" customHeight="1"/>
+    <row r="2" ht="30" customHeight="1" spans="2:5">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="2:5">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" ht="30" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="2:5">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" ht="30" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="2:5">
+      <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E5" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="50" customHeight="1" spans="1:4">
-      <c r="A5" s="7" t="s">
+    <row r="6" ht="50" customHeight="1" spans="2:5">
+      <c r="B6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" ht="50" customHeight="1" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" ht="50" customHeight="1" spans="2:5">
+      <c r="B7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" ht="50" customHeight="1" spans="1:4">
-      <c r="A7" s="7" t="s">
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" ht="50" customHeight="1" spans="2:5">
+      <c r="B8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="1:4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" ht="30" customHeight="1" spans="1:4">
-      <c r="A9" s="9" t="s">
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="2:5">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="2:5">
+      <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="2:5">
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="1:4">
-      <c r="A10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="2:5">
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="1:4">
-      <c r="A11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="2:5">
+      <c r="B13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="50" customHeight="1" spans="2:5">
+      <c r="B14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" ht="50" customHeight="1" spans="2:5">
+      <c r="B15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="1:4">
-      <c r="A12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" ht="50" customHeight="1" spans="1:4">
-      <c r="A13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" ht="50" customHeight="1" spans="1:4">
-      <c r="A14" s="7" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" customFormat="1" ht="50" customHeight="1" spans="1:4">
-      <c r="A15" s="7" t="s">
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" ht="50" customHeight="1" spans="2:5">
+      <c r="B16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="50" customHeight="1" spans="1:4">
-      <c r="A21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="50" customHeight="1" spans="1:4">
-      <c r="A22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="2:16">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="2:16">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="2:5">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="2:5">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="2:5">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" ht="50" customHeight="1" spans="2:5">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" ht="50" customHeight="1" spans="2:5">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" customFormat="1" ht="50" customHeight="1"/>
+    <row r="25" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+    </row>
+    <row r="26" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+    </row>
+    <row r="27" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+    </row>
+    <row r="30" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+    </row>
+    <row r="31" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+    </row>
+    <row r="32" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" s="19" customFormat="1" ht="30" customHeight="1" spans="2:5">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+    </row>
+    <row r="35" s="19" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" s="19" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" s="19" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" s="19" customFormat="1" ht="30" customHeight="1" spans="2:5">
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" s="19" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+    </row>
+    <row r="40" s="19" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
+  <mergeCells count="36">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1428,14 +1757,183 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="3" width="16.225" customWidth="1"/>
+    <col min="4" max="5" width="34.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25"/>
+    <row r="2" ht="30" customHeight="1" spans="2:5">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="2:5">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="2:5">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="2:5">
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="50" customHeight="1" spans="2:5">
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" ht="50" customHeight="1" spans="2:5">
+      <c r="B7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" ht="50" customHeight="1" spans="2:5">
+      <c r="B8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" ht="30" customHeight="1"/>
+    <row r="10" ht="30" customHeight="1" spans="2:5">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="2:5">
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="2:5">
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="2:5">
+      <c r="B13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="50" customHeight="1" spans="2:5">
+      <c r="B14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" ht="50" customHeight="1" spans="2:5">
+      <c r="B15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" ht="50" customHeight="1" spans="2:5">
+      <c r="B16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" ht="14.25"/>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/2.PreliminaryDesign/订餐测试用例.xlsx
+++ b/2.PreliminaryDesign/订餐测试用例.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="订餐" sheetId="1" r:id="rId1"/>
     <sheet name="取消订餐" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="产生打扫人员" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>功能描述</t>
   </si>
@@ -78,7 +78,7 @@
 按钮显示：取消加餐-1</t>
   </si>
   <si>
-    <t>第二个窗口五点前按下“确定加餐+1”按钮</t>
+    <t>第二个窗口再五点前按下“确定加餐+1”按钮</t>
   </si>
   <si>
     <t>第二个窗口弹出提示框显示  “您今日已订餐”</t>
@@ -109,10 +109,49 @@
 按钮显示：确定加餐+1</t>
   </si>
   <si>
-    <t>第二个窗口五点前按下“取消加餐-1”按钮</t>
+    <t>第二个窗口再五点前按下“取消加餐-1”按钮</t>
   </si>
   <si>
     <t>第二个窗口弹框显示“您今日还未订餐”</t>
+  </si>
+  <si>
+    <t>产生打扫人员</t>
+  </si>
+  <si>
+    <t>管理员产生打扫卫生的人</t>
+  </si>
+  <si>
+    <t>管理员登录成功，且今日未产生打扫人员，点击“统计人数”模块</t>
+  </si>
+  <si>
+    <t>五点后点击“今日之星”按钮</t>
+  </si>
+  <si>
+    <t>弹框显示“今日之星产生成功”</t>
+  </si>
+  <si>
+    <t>五点前点击“今日之星”按钮</t>
+  </si>
+  <si>
+    <t>弹框显示“未到订餐截止时间”</t>
+  </si>
+  <si>
+    <t>测试管理员多次点击产生打扫卫生的按钮</t>
+  </si>
+  <si>
+    <t>管理员打开两个窗口登录成功，且今日未产生打扫人员，点击“统计人数”模块</t>
+  </si>
+  <si>
+    <t>第一个窗口点击“今日之星”按钮</t>
+  </si>
+  <si>
+    <t>第一个窗口弹框显示“今日之星产生成功”</t>
+  </si>
+  <si>
+    <t>第二个窗口再点击“今日之星”按钮</t>
+  </si>
+  <si>
+    <t>第二个窗口弹框显示“今日已产生打扫人员”</t>
   </si>
 </sst>
 </file>
@@ -1356,8 +1395,8 @@
   <sheetPr/>
   <dimension ref="B1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1760,7 +1799,7 @@
   <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1943,14 +1982,161 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="3" width="16.225" customWidth="1"/>
+    <col min="4" max="5" width="34.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25"/>
+    <row r="2" ht="30" customHeight="1" spans="2:5">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="2:5">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="2:5">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="2:5">
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="50" customHeight="1" spans="2:5">
+      <c r="B6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" ht="50" customHeight="1" spans="2:5">
+      <c r="B7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" ht="30" customHeight="1"/>
+    <row r="9" ht="30" customHeight="1" spans="2:5">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="2:5">
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="2:5">
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="2:5">
+      <c r="B12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" ht="50" customHeight="1" spans="2:5">
+      <c r="B13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" ht="50" customHeight="1" spans="2:5">
+      <c r="B14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" ht="14.25"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/2.PreliminaryDesign/订餐测试用例.xlsx
+++ b/2.PreliminaryDesign/订餐测试用例.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="订餐" sheetId="1" r:id="rId1"/>
     <sheet name="取消订餐" sheetId="2" r:id="rId2"/>
     <sheet name="产生打扫人员" sheetId="3" r:id="rId3"/>
+    <sheet name="获取今日订餐人员" sheetId="4" r:id="rId4"/>
+    <sheet name="今日之星" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>功能描述</t>
   </si>
@@ -152,6 +154,30 @@
   </si>
   <si>
     <t>第二个窗口弹框显示“今日已产生打扫人员”</t>
+  </si>
+  <si>
+    <t>管理员登录成功，今日未产生打扫人员且今日无人订餐，点击“统计人数”模块</t>
+  </si>
+  <si>
+    <t>点击“今日之星”按钮</t>
+  </si>
+  <si>
+    <t>弹框显示“今日无人订餐”</t>
+  </si>
+  <si>
+    <t>获取今日订餐人员信息</t>
+  </si>
+  <si>
+    <t>管理员登录成功，点击“统计人数”模块，点击“查看详情”按钮</t>
+  </si>
+  <si>
+    <t>显示今日订餐人员的列表</t>
+  </si>
+  <si>
+    <t>选择部门</t>
+  </si>
+  <si>
+    <t>显示该部门今日订餐人员</t>
   </si>
 </sst>
 </file>
@@ -1982,10 +2008,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E15"/>
+  <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2121,9 +2147,61 @@
       </c>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" ht="14.25"/>
+    <row r="15" ht="30" customHeight="1"/>
+    <row r="16" ht="30" customHeight="1" spans="2:5">
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="2:5">
+      <c r="B17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="2:5">
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="2:5">
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" ht="50" customHeight="1" spans="2:5">
+      <c r="B20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="17">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
@@ -2136,9 +2214,124 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="3" width="16.225" customWidth="1"/>
+    <col min="4" max="5" width="34.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25"/>
+    <row r="2" ht="30" customHeight="1" spans="2:5">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="2:5">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="2:5">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="2:5">
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="50" customHeight="1" spans="2:5">
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" ht="50" customHeight="1" spans="2:5">
+      <c r="B7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" ht="14.25"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/2.PreliminaryDesign/订餐测试用例.xlsx
+++ b/2.PreliminaryDesign/订餐测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="订餐" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>功能描述</t>
   </si>
@@ -178,6 +178,33 @@
   </si>
   <si>
     <t>显示该部门今日订餐人员</t>
+  </si>
+  <si>
+    <t>今日之星</t>
+  </si>
+  <si>
+    <t>查看今日打扫人员</t>
+  </si>
+  <si>
+    <t>管理员已产生打扫人员</t>
+  </si>
+  <si>
+    <t>进入首页，点击“今日之星”模块</t>
+  </si>
+  <si>
+    <t>显示今日打扫人员的名字</t>
+  </si>
+  <si>
+    <t>管理员登录成功后，点击“今日之星”模块</t>
+  </si>
+  <si>
+    <t>用户登录成功后，点击“今日之星”模块</t>
+  </si>
+  <si>
+    <t>管理员未产生打扫人员</t>
+  </si>
+  <si>
+    <t>未显示今日打扫人员的名字</t>
   </si>
 </sst>
 </file>
@@ -345,14 +372,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,55 +412,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,114 +562,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -674,6 +701,41 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="-0.25"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.25"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -853,130 +915,130 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,7 +1047,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -995,7 +1057,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1053,6 +1115,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1062,7 +1133,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1421,18 +1492,18 @@
   <sheetPr/>
   <dimension ref="B1:P51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="19" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="19" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="34" style="19" customWidth="1"/>
-    <col min="5" max="5" width="36.375" style="19" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="1.75" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="34" style="22" customWidth="1"/>
+    <col min="5" max="5" width="36.375" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1"/>
@@ -1467,7 +1538,7 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:5">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="9"/>
@@ -1479,7 +1550,7 @@
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="13"/>
@@ -1489,7 +1560,7 @@
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="13"/>
@@ -1499,20 +1570,20 @@
       <c r="E7" s="14"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="2:5">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="2:5">
       <c r="B10" s="1" t="s">
@@ -1545,7 +1616,7 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="2:5">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="9"/>
@@ -1557,7 +1628,7 @@
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:5">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="13"/>
@@ -1567,7 +1638,7 @@
       <c r="E14" s="14"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="13"/>
@@ -1577,34 +1648,34 @@
       <c r="E15" s="14"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="18"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="2:16">
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="2:16">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="2:5">
       <c r="B19"/>
@@ -1638,141 +1709,141 @@
     </row>
     <row r="24" customFormat="1" ht="50" customHeight="1"/>
     <row r="25" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
     </row>
     <row r="30" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
     </row>
     <row r="32" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
     </row>
     <row r="33" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-    </row>
-    <row r="34" s="19" customFormat="1" ht="30" customHeight="1" spans="2:5">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-    </row>
-    <row r="35" s="19" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-    </row>
-    <row r="36" s="19" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-    </row>
-    <row r="37" s="19" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-    </row>
-    <row r="38" s="19" customFormat="1" ht="30" customHeight="1" spans="2:5">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-    </row>
-    <row r="39" s="19" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-    </row>
-    <row r="40" s="19" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+    </row>
+    <row r="34" s="22" customFormat="1" ht="30" customHeight="1" spans="2:5">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+    </row>
+    <row r="35" s="22" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+    </row>
+    <row r="36" s="22" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+    </row>
+    <row r="37" s="22" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+    </row>
+    <row r="38" s="22" customFormat="1" ht="30" customHeight="1" spans="2:5">
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+    </row>
+    <row r="39" s="22" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+    </row>
+    <row r="40" s="22" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -1824,7 +1895,7 @@
   <sheetPr/>
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
@@ -1899,14 +1970,14 @@
       <c r="E7" s="14"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" ht="30" customHeight="1"/>
     <row r="10" ht="30" customHeight="1" spans="2:5">
@@ -1972,14 +2043,14 @@
       <c r="E15" s="14"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="18"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" ht="14.25"/>
   </sheetData>
@@ -2008,9 +2079,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E20"/>
+  <dimension ref="B1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -2075,14 +2146,14 @@
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" ht="30" customHeight="1"/>
     <row r="9" ht="30" customHeight="1" spans="2:5">
@@ -2138,14 +2209,14 @@
       <c r="E13" s="14"/>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:5">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" ht="30" customHeight="1"/>
     <row r="16" ht="30" customHeight="1" spans="2:5">
@@ -2191,15 +2262,16 @@
       </c>
     </row>
     <row r="20" ht="50" customHeight="1" spans="2:5">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="18"/>
-    </row>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" ht="14.25"/>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="C2:E2"/>
@@ -2231,8 +2303,8 @@
   <sheetPr/>
   <dimension ref="B1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -2296,14 +2368,14 @@
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" ht="14.25"/>
   </sheetData>
@@ -2323,14 +2395,183 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="3" width="16.225" customWidth="1"/>
+    <col min="4" max="5" width="34.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25"/>
+    <row r="2" ht="30" customHeight="1" spans="2:5">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="2:5">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="2:5">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="2:5">
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="50" customHeight="1" spans="2:5">
+      <c r="B6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" ht="50" customHeight="1" spans="2:5">
+      <c r="B7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" ht="50" customHeight="1" spans="2:5">
+      <c r="B8" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" ht="30" customHeight="1"/>
+    <row r="10" ht="30" customHeight="1" spans="2:5">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="2:5">
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="2:5">
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="2:5">
+      <c r="B13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="50" customHeight="1" spans="2:5">
+      <c r="B14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" ht="50" customHeight="1" spans="2:5">
+      <c r="B15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" ht="50" customHeight="1" spans="2:5">
+      <c r="B16" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" ht="14.25"/>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/2.PreliminaryDesign/订餐测试用例.xlsx
+++ b/2.PreliminaryDesign/订餐测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="订餐" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>功能描述</t>
   </si>
@@ -126,18 +126,24 @@
     <t>管理员登录成功，且今日未产生打扫人员，点击“统计人数”模块</t>
   </si>
   <si>
+    <t>五点前</t>
+  </si>
+  <si>
+    <t>界面不显示“今日之星”按钮</t>
+  </si>
+  <si>
+    <t>五点后</t>
+  </si>
+  <si>
+    <t>界面显示“今日之星”按钮</t>
+  </si>
+  <si>
     <t>五点后点击“今日之星”按钮</t>
   </si>
   <si>
     <t>弹框显示“今日之星产生成功”</t>
   </si>
   <si>
-    <t>五点前点击“今日之星”按钮</t>
-  </si>
-  <si>
-    <t>弹框显示“未到订餐截止时间”</t>
-  </si>
-  <si>
     <t>测试管理员多次点击产生打扫卫生的按钮</t>
   </si>
   <si>
@@ -171,7 +177,7 @@
     <t>管理员登录成功，点击“统计人数”模块，点击“查看详情”按钮</t>
   </si>
   <si>
-    <t>显示今日订餐人员的列表</t>
+    <t>显示今日订餐人员的列表和订餐人数与总金额</t>
   </si>
   <si>
     <t>选择部门</t>
@@ -212,10 +218,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -241,8 +247,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,9 +337,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,53 +350,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,19 +370,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -394,6 +400,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -406,25 +514,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,19 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,43 +544,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,73 +580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,16 +816,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -830,6 +836,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,32 +870,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,10 +921,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -927,137 +933,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1122,6 +1128,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1492,18 +1501,18 @@
   <sheetPr/>
   <dimension ref="B1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="22" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="34" style="22" customWidth="1"/>
-    <col min="5" max="5" width="36.375" style="22" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="1.75" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="23" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="34" style="23" customWidth="1"/>
+    <col min="5" max="5" width="36.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1"/>
@@ -1538,7 +1547,7 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:5">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="9"/>
@@ -1550,7 +1559,7 @@
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="13"/>
@@ -1560,7 +1569,7 @@
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="13"/>
@@ -1570,7 +1579,7 @@
       <c r="E7" s="14"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="20"/>
@@ -1580,10 +1589,10 @@
       <c r="E8" s="21"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="2:5">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="2:5">
       <c r="B10" s="1" t="s">
@@ -1616,7 +1625,7 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="2:5">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="9"/>
@@ -1628,7 +1637,7 @@
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:5">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="13"/>
@@ -1638,7 +1647,7 @@
       <c r="E14" s="14"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="13"/>
@@ -1648,7 +1657,7 @@
       <c r="E15" s="14"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="26" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="20"/>
@@ -1658,24 +1667,24 @@
       <c r="E16" s="21"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="2:16">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="2:16">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="2:5">
       <c r="B19"/>
@@ -1709,141 +1718,141 @@
     </row>
     <row r="24" customFormat="1" ht="50" customHeight="1"/>
     <row r="25" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
     </row>
     <row r="29" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
     </row>
     <row r="31" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="32" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
     </row>
     <row r="33" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-    </row>
-    <row r="34" s="22" customFormat="1" ht="30" customHeight="1" spans="2:5">
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-    </row>
-    <row r="35" s="22" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-    </row>
-    <row r="36" s="22" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-    </row>
-    <row r="37" s="22" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-    </row>
-    <row r="38" s="22" customFormat="1" ht="30" customHeight="1" spans="2:5">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-    </row>
-    <row r="39" s="22" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-    </row>
-    <row r="40" s="22" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" s="23" customFormat="1" ht="30" customHeight="1" spans="2:5">
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+    </row>
+    <row r="35" s="23" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+    </row>
+    <row r="36" s="23" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+    </row>
+    <row r="37" s="23" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+    </row>
+    <row r="38" s="23" customFormat="1" ht="30" customHeight="1" spans="2:5">
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+    </row>
+    <row r="39" s="23" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+    </row>
+    <row r="40" s="23" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -2079,10 +2088,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E21"/>
+  <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2140,7 +2149,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="14"/>
@@ -2153,144 +2162,155 @@
       <c r="D7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" ht="30" customHeight="1"/>
-    <row r="9" ht="30" customHeight="1" spans="2:5">
-      <c r="B9" s="1" t="s">
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" ht="50" customHeight="1" spans="2:5">
+      <c r="B8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" ht="30" customHeight="1"/>
+    <row r="10" ht="30" customHeight="1" spans="2:5">
+      <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="2:5">
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="2:5">
       <c r="B11" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="2:5">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="2:5">
+      <c r="B13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="50" customHeight="1" spans="2:5">
-      <c r="B13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="14"/>
-    </row>
     <row r="14" ht="50" customHeight="1" spans="2:5">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" ht="30" customHeight="1"/>
-    <row r="16" ht="30" customHeight="1" spans="2:5">
-      <c r="B16" s="1" t="s">
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" ht="50" customHeight="1" spans="2:5">
+      <c r="B15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" ht="30" customHeight="1"/>
+    <row r="17" ht="30" customHeight="1" spans="2:5">
+      <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" ht="30" customHeight="1" spans="2:5">
-      <c r="B17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="2:5">
       <c r="B18" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="2:5">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="2:5">
+      <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" ht="50" customHeight="1" spans="2:5">
-      <c r="B20" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="21"/>
-    </row>
-    <row r="21" ht="14.25"/>
+    <row r="21" ht="50" customHeight="1" spans="2:5">
+      <c r="B21" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" ht="14.25"/>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2303,8 +2323,8 @@
   <sheetPr/>
   <dimension ref="B1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -2320,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -2330,7 +2350,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -2340,7 +2360,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -2363,17 +2383,17 @@
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
       <c r="B7" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" s="21"/>
     </row>
@@ -2414,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -2424,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -2434,7 +2454,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -2453,31 +2473,31 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
       <c r="B6" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
       <c r="B7" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" s="17"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
       <c r="B8" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E8" s="21"/>
     </row>
@@ -2487,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
@@ -2497,7 +2517,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -2507,7 +2527,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -2526,31 +2546,31 @@
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:5">
       <c r="B14" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E14" s="14"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
       <c r="B15" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E15" s="17"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
       <c r="B16" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E16" s="21"/>
     </row>

--- a/2.PreliminaryDesign/订餐测试用例.xlsx
+++ b/2.PreliminaryDesign/订餐测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
+    <workbookView windowWidth="14250" windowHeight="10920"/>
   </bookViews>
   <sheets>
     <sheet name="订餐" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>功能描述</t>
   </si>
@@ -45,6 +45,28 @@
   </si>
   <si>
     <t>实际情况</t>
+  </si>
+  <si>
+    <t>五点前</t>
+  </si>
+  <si>
+    <t>界面显示“确定加餐+1”按钮和备注框</t>
+  </si>
+  <si>
+    <t>五点后</t>
+  </si>
+  <si>
+    <t>五点前按下“确定加餐+1”按钮</t>
+  </si>
+  <si>
+    <t>状态显示：已加餐
+按钮显示：取消加餐-1       备注框：已消失</t>
+  </si>
+  <si>
+    <t>测试用户同一天多次订餐</t>
+  </si>
+  <si>
+    <t>用户打开两个窗口并登录成功，且今日未订餐，点击“今日订餐”模块</t>
   </si>
   <si>
     <t>空</t>
@@ -54,51 +76,39 @@
 按钮显示：确定加餐+1</t>
   </si>
   <si>
-    <t>五点前按下“确定加餐+1”按钮</t>
+    <t>第一个窗口五点前按下“确定加餐+1”按钮</t>
+  </si>
+  <si>
+    <t>第一个窗口状态显示：已加餐
+按钮显示：取消加餐-1</t>
+  </si>
+  <si>
+    <t>第二个窗口再五点前按下“确定加餐+1”按钮</t>
+  </si>
+  <si>
+    <t>第二个窗口弹出提示框显示  “您今日已订餐”</t>
+  </si>
+  <si>
+    <t>取消订餐</t>
+  </si>
+  <si>
+    <t>用户取消今日订餐</t>
+  </si>
+  <si>
+    <t>用户登录成功，且今日已订餐，点击“今日订餐”模块</t>
   </si>
   <si>
     <t>状态显示：已加餐
 按钮显示：取消加餐-1</t>
   </si>
   <si>
-    <t>五点后按下“确定加餐+1”按钮</t>
+    <t>五点前按下“取消加餐-1”按钮</t>
+  </si>
+  <si>
+    <t>五点后按下“取消加餐-1”按钮</t>
   </si>
   <si>
     <t>界面没有任何反应</t>
-  </si>
-  <si>
-    <t>测试用户同一天多次订餐</t>
-  </si>
-  <si>
-    <t>用户打开两个窗口并登录成功，且今日未订餐，点击“今日订餐”模块</t>
-  </si>
-  <si>
-    <t>第一个窗口五点前按下“确定加餐+1”按钮</t>
-  </si>
-  <si>
-    <t>第一个窗口状态显示：已加餐
-按钮显示：取消加餐-1</t>
-  </si>
-  <si>
-    <t>第二个窗口再五点前按下“确定加餐+1”按钮</t>
-  </si>
-  <si>
-    <t>第二个窗口弹出提示框显示  “您今日已订餐”</t>
-  </si>
-  <si>
-    <t>取消订餐</t>
-  </si>
-  <si>
-    <t>用户取消今日订餐</t>
-  </si>
-  <si>
-    <t>用户登录成功，且今日已订餐，点击“今日订餐”模块</t>
-  </si>
-  <si>
-    <t>五点前按下“取消加餐-1”按钮</t>
-  </si>
-  <si>
-    <t>五点后按下“取消加餐-1”按钮</t>
   </si>
   <si>
     <t>用户打开两个窗口并登录成功，且今日已订餐，点击“今日订餐”模块</t>
@@ -126,15 +136,9 @@
     <t>管理员登录成功，且今日未产生打扫人员，点击“统计人数”模块</t>
   </si>
   <si>
-    <t>五点前</t>
-  </si>
-  <si>
     <t>界面不显示“今日之星”按钮</t>
   </si>
   <si>
-    <t>五点后</t>
-  </si>
-  <si>
     <t>界面显示“今日之星”按钮</t>
   </si>
   <si>
@@ -183,7 +187,7 @@
     <t>选择部门</t>
   </si>
   <si>
-    <t>显示该部门今日订餐人员</t>
+    <t>显示该部门今日订餐人员及该部门订餐人数与总金额</t>
   </si>
   <si>
     <t>今日之星</t>
@@ -219,8 +223,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -247,29 +251,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -280,43 +261,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,9 +281,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,6 +343,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -383,13 +394,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -400,13 +404,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,19 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,145 +560,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,20 +891,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,10 +925,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -933,137 +937,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1130,22 +1134,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1501,18 +1508,18 @@
   <sheetPr/>
   <dimension ref="B1:P51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="23" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="23" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="34" style="23" customWidth="1"/>
-    <col min="5" max="5" width="36.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="1.75" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="34" style="22" customWidth="1"/>
+    <col min="5" max="5" width="36.375" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1"/>
@@ -1547,7 +1554,7 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:5">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="9"/>
@@ -1559,32 +1566,30 @@
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" ht="65" customHeight="1" spans="2:5">
+      <c r="B8" s="26" t="s">
         <v>12</v>
-      </c>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" ht="50" customHeight="1" spans="2:5">
-      <c r="B8" s="26" t="s">
-        <v>13</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="21"/>
     </row>
@@ -1609,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -1619,13 +1624,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="2:5">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="9"/>
@@ -1637,32 +1642,32 @@
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:5">
-      <c r="B14" s="25" t="s">
-        <v>9</v>
+      <c r="B14" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E14" s="14"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
-      <c r="B15" s="25" t="s">
-        <v>17</v>
+      <c r="B15" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" s="14"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
       <c r="B16" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" s="21"/>
     </row>
@@ -1771,40 +1776,40 @@
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" s="23" customFormat="1" ht="30" customHeight="1" spans="2:5">
+    <row r="34" s="22" customFormat="1" ht="30" customHeight="1" spans="2:5">
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
     </row>
-    <row r="35" s="23" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-    </row>
-    <row r="36" s="23" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-    </row>
-    <row r="37" s="23" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-    </row>
-    <row r="38" s="23" customFormat="1" ht="30" customHeight="1" spans="2:5">
+    <row r="35" s="22" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+    </row>
+    <row r="36" s="22" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+    </row>
+    <row r="37" s="22" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+    </row>
+    <row r="38" s="22" customFormat="1" ht="30" customHeight="1" spans="2:5">
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
     </row>
-    <row r="39" s="23" customFormat="1" ht="50" customHeight="1" spans="2:5">
+    <row r="39" s="22" customFormat="1" ht="50" customHeight="1" spans="2:5">
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
     </row>
-    <row r="40" s="23" customFormat="1" ht="50" customHeight="1" spans="2:5">
+    <row r="40" s="22" customFormat="1" ht="50" customHeight="1" spans="2:5">
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -1921,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -1931,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -1941,7 +1946,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -1960,31 +1965,31 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
       <c r="B6" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
       <c r="B7" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E7" s="14"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
       <c r="B8" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E8" s="21"/>
     </row>
@@ -1994,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
@@ -2004,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -2014,7 +2019,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -2033,31 +2038,31 @@
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:5">
       <c r="B14" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E14" s="14"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
       <c r="B15" s="11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E15" s="14"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
       <c r="B16" s="18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E16" s="21"/>
     </row>
@@ -2107,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -2117,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -2127,7 +2132,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -2146,31 +2151,31 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
       <c r="B6" s="11" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
       <c r="B7" s="18" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="22"/>
+        <v>38</v>
+      </c>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
       <c r="B8" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="21"/>
     </row>
@@ -2180,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
@@ -2190,7 +2195,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -2200,7 +2205,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -2219,21 +2224,21 @@
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:5">
       <c r="B14" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="14"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
       <c r="B15" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="21"/>
     </row>
@@ -2243,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
@@ -2253,7 +2258,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
@@ -2263,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
@@ -2282,11 +2287,11 @@
     </row>
     <row r="21" ht="50" customHeight="1" spans="2:5">
       <c r="B21" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21" s="21"/>
     </row>
@@ -2323,8 +2328,8 @@
   <sheetPr/>
   <dimension ref="B1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -2340,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -2350,7 +2355,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -2360,7 +2365,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -2379,21 +2384,21 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
       <c r="B6" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
       <c r="B7" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" s="21"/>
     </row>
@@ -2434,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -2444,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -2454,7 +2459,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -2473,31 +2478,31 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
       <c r="B6" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
       <c r="B7" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" s="17"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
       <c r="B8" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" s="21"/>
     </row>
@@ -2507,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
@@ -2517,7 +2522,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -2527,7 +2532,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -2546,31 +2551,31 @@
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:5">
       <c r="B14" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" s="14"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
       <c r="B15" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" s="17"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
       <c r="B16" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E16" s="21"/>
     </row>

--- a/2.PreliminaryDesign/订餐测试用例.xlsx
+++ b/2.PreliminaryDesign/订餐测试用例.xlsx
@@ -50,7 +50,8 @@
     <t>五点前</t>
   </si>
   <si>
-    <t>界面显示“确定加餐+1”按钮和备注框</t>
+    <t>状态显示：未加餐
+按钮显示：确定加餐+1        备注框：显示</t>
   </si>
   <si>
     <t>五点后</t>
@@ -60,7 +61,7 @@
   </si>
   <si>
     <t>状态显示：已加餐
-按钮显示：取消加餐-1       备注框：已消失</t>
+按钮显示：取消加餐-1       备注框：不显示</t>
   </si>
   <si>
     <t>测试用户同一天多次订餐</t>
@@ -70,39 +71,39 @@
   </si>
   <si>
     <t>空</t>
+  </si>
+  <si>
+    <t>第一个窗口五点前按下“确定加餐+1”按钮</t>
+  </si>
+  <si>
+    <t>第一个窗口                状态显示：已加餐
+按钮显示：取消加餐-1      备注框：不显示</t>
+  </si>
+  <si>
+    <t>第二个窗口再五点前按下“确定加餐+1”按钮</t>
+  </si>
+  <si>
+    <t>第二个窗口                弹出提示框显示  “您今日已订餐”</t>
+  </si>
+  <si>
+    <t>取消订餐</t>
+  </si>
+  <si>
+    <t>用户取消今日订餐</t>
+  </si>
+  <si>
+    <t>用户登录成功，且今日已订餐，点击“今日订餐”模块</t>
+  </si>
+  <si>
+    <t>状态显示：已加餐
+按钮显示：取消加餐-1</t>
+  </si>
+  <si>
+    <t>五点前按下“取消加餐-1”按钮</t>
   </si>
   <si>
     <t>状态显示：未加餐
 按钮显示：确定加餐+1</t>
-  </si>
-  <si>
-    <t>第一个窗口五点前按下“确定加餐+1”按钮</t>
-  </si>
-  <si>
-    <t>第一个窗口状态显示：已加餐
-按钮显示：取消加餐-1</t>
-  </si>
-  <si>
-    <t>第二个窗口再五点前按下“确定加餐+1”按钮</t>
-  </si>
-  <si>
-    <t>第二个窗口弹出提示框显示  “您今日已订餐”</t>
-  </si>
-  <si>
-    <t>取消订餐</t>
-  </si>
-  <si>
-    <t>用户取消今日订餐</t>
-  </si>
-  <si>
-    <t>用户登录成功，且今日已订餐，点击“今日订餐”模块</t>
-  </si>
-  <si>
-    <t>状态显示：已加餐
-按钮显示：取消加餐-1</t>
-  </si>
-  <si>
-    <t>五点前按下“取消加餐-1”按钮</t>
   </si>
   <si>
     <t>五点后按下“取消加餐-1”按钮</t>
@@ -222,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -252,15 +253,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,7 +275,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,23 +310,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,14 +343,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,7 +351,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,6 +373,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -389,6 +383,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -404,187 +405,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,21 +817,6 @@
       </top>
       <bottom style="thick">
         <color theme="6" tint="-0.25"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,6 +841,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,15 +901,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -925,149 +926,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1138,12 +1139,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1509,7 +1504,7 @@
   <dimension ref="B1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1565,26 +1560,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="50" customHeight="1" spans="2:5">
-      <c r="B6" s="24" t="s">
+    <row r="6" ht="65" customHeight="1" spans="2:5">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
     </row>
     <row r="8" ht="65" customHeight="1" spans="2:5">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="20"/>
@@ -1594,10 +1589,10 @@
       <c r="E8" s="21"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="2:5">
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="2:5">
       <c r="B10" s="1" t="s">
@@ -1641,55 +1636,55 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" ht="50" customHeight="1" spans="2:5">
-      <c r="B14" s="28" t="s">
+    <row r="14" ht="66" customHeight="1" spans="2:5">
+      <c r="B14" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" ht="83" customHeight="1" spans="2:5">
+      <c r="B15" s="26" t="s">
         <v>17</v>
-      </c>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" ht="50" customHeight="1" spans="2:5">
-      <c r="B15" s="28" t="s">
-        <v>18</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" ht="92" customHeight="1" spans="2:5">
+      <c r="B16" s="24" t="s">
         <v>19</v>
-      </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" ht="50" customHeight="1" spans="2:5">
-      <c r="B16" s="26" t="s">
-        <v>20</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="21"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="2:16">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="2:16">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="2:5">
       <c r="B19"/>
@@ -1723,141 +1718,141 @@
     </row>
     <row r="24" customFormat="1" ht="50" customHeight="1"/>
     <row r="25" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="34" s="22" customFormat="1" ht="30" customHeight="1" spans="2:5">
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" s="22" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" s="22" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
     </row>
     <row r="37" s="22" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
     </row>
     <row r="38" s="22" customFormat="1" ht="30" customHeight="1" spans="2:5">
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" s="22" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" s="22" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -1926,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -1936,7 +1931,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -1946,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -1969,17 +1964,17 @@
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
       <c r="B7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E7" s="14"/>
     </row>
@@ -1999,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
@@ -2009,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -2042,7 +2037,7 @@
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="14"/>
     </row>

--- a/2.PreliminaryDesign/订餐测试用例.xlsx
+++ b/2.PreliminaryDesign/订餐测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14250" windowHeight="10920"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="订餐" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>功能描述</t>
   </si>
@@ -41,7 +41,7 @@
     <t>输入/动作</t>
   </si>
   <si>
-    <t>期望的输出/相应</t>
+    <t>期望的输出/响应</t>
   </si>
   <si>
     <t>实际情况</t>
@@ -57,6 +57,9 @@
     <t>五点后</t>
   </si>
   <si>
+    <t>无按钮</t>
+  </si>
+  <si>
     <t>五点前按下“确定加餐+1”按钮</t>
   </si>
   <si>
@@ -215,7 +218,7 @@
     <t>管理员未产生打扫人员</t>
   </si>
   <si>
-    <t>未显示今日打扫人员的名字</t>
+    <t>还未产生</t>
   </si>
 </sst>
 </file>
@@ -1135,19 +1138,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1504,17 +1507,17 @@
   <dimension ref="B1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="22" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="34" style="22" customWidth="1"/>
-    <col min="5" max="5" width="36.375" style="22" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="1.75" style="25" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="25" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="34" style="25" customWidth="1"/>
+    <col min="5" max="5" width="36.375" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1"/>
@@ -1549,7 +1552,7 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:5">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="9"/>
@@ -1575,24 +1578,26 @@
         <v>11</v>
       </c>
       <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="E7" s="14"/>
     </row>
     <row r="8" ht="65" customHeight="1" spans="2:5">
       <c r="B8" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="21"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="2:5">
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="2:5">
       <c r="B10" s="1" t="s">
@@ -1609,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -1619,13 +1624,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="2:5">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="9"/>
@@ -1637,8 +1642,8 @@
       </c>
     </row>
     <row r="14" ht="66" customHeight="1" spans="2:5">
-      <c r="B14" s="26" t="s">
-        <v>16</v>
+      <c r="B14" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
@@ -1647,44 +1652,44 @@
       <c r="E14" s="14"/>
     </row>
     <row r="15" ht="83" customHeight="1" spans="2:5">
-      <c r="B15" s="26" t="s">
-        <v>17</v>
+      <c r="B15" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" s="14"/>
     </row>
     <row r="16" ht="92" customHeight="1" spans="2:5">
       <c r="B16" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" s="21"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="2:16">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="2:16">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="2:5">
       <c r="B19"/>
@@ -1718,141 +1723,141 @@
     </row>
     <row r="24" customFormat="1" ht="50" customHeight="1"/>
     <row r="25" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
     </row>
     <row r="30" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
     </row>
     <row r="32" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
     </row>
     <row r="33" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-    </row>
-    <row r="34" s="22" customFormat="1" ht="30" customHeight="1" spans="2:5">
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-    </row>
-    <row r="35" s="22" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+    </row>
+    <row r="34" s="25" customFormat="1" ht="30" customHeight="1" spans="2:5">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+    </row>
+    <row r="35" s="25" customFormat="1" ht="30" customHeight="1" spans="3:5">
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
     </row>
-    <row r="36" s="22" customFormat="1" ht="30" customHeight="1" spans="3:5">
+    <row r="36" s="25" customFormat="1" ht="30" customHeight="1" spans="3:5">
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
     </row>
-    <row r="37" s="22" customFormat="1" ht="30" customHeight="1" spans="3:5">
+    <row r="37" s="25" customFormat="1" ht="30" customHeight="1" spans="3:5">
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
     </row>
-    <row r="38" s="22" customFormat="1" ht="30" customHeight="1" spans="2:5">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-    </row>
-    <row r="39" s="22" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-    </row>
-    <row r="40" s="22" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+    <row r="38" s="25" customFormat="1" ht="30" customHeight="1" spans="2:5">
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+    </row>
+    <row r="39" s="25" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+    </row>
+    <row r="40" s="25" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -1904,8 +1909,8 @@
   <sheetPr/>
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1921,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -1931,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -1941,7 +1946,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -1960,31 +1965,31 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
       <c r="B6" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
       <c r="B7" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="14"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
       <c r="B8" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="21"/>
     </row>
@@ -1994,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
@@ -2004,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -2014,7 +2019,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -2033,31 +2038,31 @@
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:5">
       <c r="B14" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="14"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
       <c r="B15" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="14"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
       <c r="B16" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="21"/>
     </row>
@@ -2088,10 +2093,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E22"/>
+  <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:E17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2101,13 +2106,12 @@
     <col min="4" max="5" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
     <row r="2" ht="30" customHeight="1" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -2117,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -2127,16 +2131,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:5">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
@@ -2145,32 +2149,32 @@
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="20" t="s">
-        <v>37</v>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="17"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
-      <c r="B8" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="19"/>
+      <c r="B8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="20"/>
       <c r="D8" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="21"/>
     </row>
@@ -2180,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
@@ -2190,7 +2194,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -2200,7 +2204,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -2219,21 +2223,21 @@
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:5">
       <c r="B14" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="14"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
       <c r="B15" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="21"/>
     </row>
@@ -2243,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
@@ -2253,7 +2257,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
@@ -2263,7 +2267,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
@@ -2282,11 +2286,11 @@
     </row>
     <row r="21" ht="50" customHeight="1" spans="2:5">
       <c r="B21" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" s="21"/>
     </row>
@@ -2324,7 +2328,7 @@
   <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -2340,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -2350,7 +2354,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -2360,7 +2364,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -2379,21 +2383,21 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
       <c r="B6" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
       <c r="B7" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" s="21"/>
     </row>
@@ -2415,10 +2419,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E17"/>
+  <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2434,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -2444,7 +2448,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -2454,7 +2458,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -2473,31 +2477,31 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
       <c r="B6" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
       <c r="B7" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="17"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
       <c r="B8" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="21"/>
     </row>
@@ -2507,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
@@ -2517,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -2527,7 +2531,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -2546,35 +2550,34 @@
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:5">
       <c r="B14" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14" s="14"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
       <c r="B15" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E15" s="17"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
       <c r="B16" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16" s="21"/>
     </row>
-    <row r="17" ht="14.25"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="C2:E2"/>

--- a/2.PreliminaryDesign/订餐测试用例.xlsx
+++ b/2.PreliminaryDesign/订餐测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="14250" windowHeight="10920" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="订餐" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
     <t>管理员未产生打扫人员</t>
   </si>
   <si>
-    <t>还未产生</t>
+    <t>尚未产生</t>
   </si>
 </sst>
 </file>
@@ -227,9 +227,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -256,7 +256,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,15 +285,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,7 +317,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,17 +341,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,31 +364,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,21 +398,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -408,25 +408,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,157 +582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,11 +824,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,17 +878,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,32 +913,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -929,10 +929,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -941,133 +941,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1506,7 +1506,7 @@
   <sheetPr/>
   <dimension ref="B1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2093,7 +2093,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E22"/>
+  <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
@@ -2106,6 +2106,7 @@
     <col min="4" max="5" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="14.25"/>
     <row r="2" ht="30" customHeight="1" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2419,10 +2420,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E16"/>
+  <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2578,6 +2579,7 @@
       </c>
       <c r="E16" s="21"/>
     </row>
+    <row r="17" ht="14.25"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="C2:E2"/>

--- a/2.PreliminaryDesign/订餐测试用例.xlsx
+++ b/2.PreliminaryDesign/订餐测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14250" windowHeight="10920" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="12791" windowHeight="10115" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="订餐" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>功能描述</t>
   </si>
@@ -149,7 +149,7 @@
     <t>五点后点击“今日之星”按钮</t>
   </si>
   <si>
-    <t>弹框显示“今日之星产生成功”</t>
+    <t>今日之星产生成功</t>
   </si>
   <si>
     <t>测试管理员多次点击产生打扫卫生的按钮</t>
@@ -161,22 +161,16 @@
     <t>第一个窗口点击“今日之星”按钮</t>
   </si>
   <si>
-    <t>第一个窗口弹框显示“今日之星产生成功”</t>
-  </si>
-  <si>
     <t>第二个窗口再点击“今日之星”按钮</t>
   </si>
   <si>
-    <t>第二个窗口弹框显示“今日已产生打扫人员”</t>
+    <t>未能产生今日之星</t>
   </si>
   <si>
     <t>管理员登录成功，今日未产生打扫人员且今日无人订餐，点击“统计人数”模块</t>
   </si>
   <si>
     <t>点击“今日之星”按钮</t>
-  </si>
-  <si>
-    <t>弹框显示“今日无人订餐”</t>
   </si>
   <si>
     <t>获取今日订餐人员信息</t>
@@ -226,10 +220,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -256,30 +250,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,30 +273,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,7 +289,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,6 +305,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -348,7 +349,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -363,15 +364,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,15 +387,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,49 +402,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,127 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,6 +814,30 @@
       </top>
       <bottom style="thick">
         <color theme="6" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,17 +866,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,46 +901,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,10 +923,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -941,133 +935,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1510,13 +1504,13 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="1" max="1" width="1.75" style="25" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="25" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="17.1296296296296" style="25" customWidth="1"/>
     <col min="4" max="4" width="34" style="25" customWidth="1"/>
-    <col min="5" max="5" width="36.375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="36.3796296296296" style="25" customWidth="1"/>
     <col min="6" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
@@ -1909,18 +1903,18 @@
   <sheetPr/>
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="3" width="16.225" customWidth="1"/>
-    <col min="4" max="5" width="34.625" customWidth="1"/>
+    <col min="2" max="3" width="16.2222222222222" customWidth="1"/>
+    <col min="4" max="5" width="34.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
+    <row r="1" ht="15.15"/>
     <row r="2" ht="30" customHeight="1" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2066,7 +2060,7 @@
       </c>
       <c r="E16" s="21"/>
     </row>
-    <row r="17" ht="14.25"/>
+    <row r="17" ht="15.15"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="C2:E2"/>
@@ -2095,18 +2089,18 @@
   <sheetPr/>
   <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="3" width="16.225" customWidth="1"/>
-    <col min="4" max="5" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="3.62962962962963" customWidth="1"/>
+    <col min="2" max="3" width="16.2222222222222" customWidth="1"/>
+    <col min="4" max="5" width="34.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
+    <row r="1" ht="15.15"/>
     <row r="2" ht="30" customHeight="1" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2228,19 +2222,19 @@
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
       <c r="B15" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" ht="30" customHeight="1"/>
     <row r="17" ht="30" customHeight="1" spans="2:5">
@@ -2268,7 +2262,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
@@ -2287,15 +2281,15 @@
     </row>
     <row r="21" ht="50" customHeight="1" spans="2:5">
       <c r="B21" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E21" s="21"/>
     </row>
-    <row r="22" ht="14.25"/>
+    <row r="22" ht="15.15"/>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="C2:E2"/>
@@ -2332,20 +2326,20 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="3" width="16.225" customWidth="1"/>
-    <col min="4" max="5" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="3.62962962962963" customWidth="1"/>
+    <col min="2" max="3" width="16.2222222222222" customWidth="1"/>
+    <col min="4" max="5" width="34.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
+    <row r="1" ht="15.15"/>
     <row r="2" ht="30" customHeight="1" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -2355,7 +2349,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -2365,7 +2359,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -2388,21 +2382,21 @@
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
       <c r="B7" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" ht="14.25"/>
+    <row r="8" ht="15.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C2:E2"/>
@@ -2422,24 +2416,24 @@
   <sheetPr/>
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="2" max="3" width="16.225" customWidth="1"/>
-    <col min="4" max="5" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="3.12962962962963" customWidth="1"/>
+    <col min="2" max="3" width="16.2222222222222" customWidth="1"/>
+    <col min="4" max="5" width="34.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
+    <row r="1" ht="15.15"/>
     <row r="2" ht="30" customHeight="1" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -2449,7 +2443,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -2459,7 +2453,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -2478,31 +2472,31 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
       <c r="B6" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
       <c r="B7" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="17"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
       <c r="B8" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" s="21"/>
     </row>
@@ -2512,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
@@ -2522,7 +2516,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -2532,7 +2526,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -2551,35 +2545,35 @@
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:5">
       <c r="B14" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" s="14"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
       <c r="B15" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E15" s="17"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
       <c r="B16" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E16" s="21"/>
     </row>
-    <row r="17" ht="14.25"/>
+    <row r="17" ht="15.15"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="C2:E2"/>

--- a/2.PreliminaryDesign/订餐测试用例.xlsx
+++ b/2.PreliminaryDesign/订餐测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12791" windowHeight="10115" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="12791" windowHeight="10115" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="订餐" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>功能描述</t>
   </si>
@@ -109,10 +109,7 @@
 按钮显示：确定加餐+1</t>
   </si>
   <si>
-    <t>五点后按下“取消加餐-1”按钮</t>
-  </si>
-  <si>
-    <t>界面没有任何反应</t>
+    <t>界面取消订餐按钮消失</t>
   </si>
   <si>
     <t>用户打开两个窗口并登录成功，且今日已订餐，点击“今日订餐”模块</t>
@@ -1500,7 +1497,7 @@
   <sheetPr/>
   <dimension ref="B1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1903,8 +1900,8 @@
   <sheetPr/>
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1979,11 +1976,11 @@
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
       <c r="B8" s="18" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="21"/>
     </row>
@@ -2013,7 +2010,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -2042,21 +2039,21 @@
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
       <c r="B15" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="14"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
       <c r="B16" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="21"/>
     </row>
@@ -2106,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -2116,7 +2113,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -2126,7 +2123,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -2149,7 +2146,7 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="14"/>
     </row>
@@ -2159,17 +2156,17 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="14"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
       <c r="B8" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="21"/>
     </row>
@@ -2179,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
@@ -2189,7 +2186,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -2199,7 +2196,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -2218,21 +2215,21 @@
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:5">
       <c r="B14" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="13"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
       <c r="B15" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="20"/>
     </row>
@@ -2242,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
@@ -2252,7 +2249,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
@@ -2262,7 +2259,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
@@ -2281,11 +2278,11 @@
     </row>
     <row r="21" ht="50" customHeight="1" spans="2:5">
       <c r="B21" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="21"/>
     </row>
@@ -2322,7 +2319,7 @@
   <sheetPr/>
   <dimension ref="B1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -2339,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -2349,7 +2346,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -2359,7 +2356,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -2382,17 +2379,17 @@
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
       <c r="B7" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="21"/>
     </row>
@@ -2433,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -2443,7 +2440,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -2453,7 +2450,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -2472,31 +2469,31 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
       <c r="B6" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
       <c r="B7" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="17"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
       <c r="B8" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="21"/>
     </row>
@@ -2506,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
@@ -2516,7 +2513,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -2526,7 +2523,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -2545,31 +2542,31 @@
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:5">
       <c r="B14" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="14"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
       <c r="B15" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="17"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
       <c r="B16" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="21"/>
     </row>

--- a/2.PreliminaryDesign/订餐测试用例.xlsx
+++ b/2.PreliminaryDesign/订餐测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14250" windowHeight="10920" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="14250" windowHeight="10920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="订餐" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>功能描述</t>
   </si>
@@ -57,7 +57,8 @@
     <t>五点后</t>
   </si>
   <si>
-    <t>无按钮</t>
+    <t>状态显示：未加餐
+按钮：不显示                备注框：不显示</t>
   </si>
   <si>
     <t>五点前按下“确定加餐+1”按钮</t>
@@ -86,7 +87,7 @@
     <t>第二个窗口再五点前按下“确定加餐+1”按钮</t>
   </si>
   <si>
-    <t>第二个窗口                弹出提示框显示  “您今日已订餐”</t>
+    <t>订餐失败</t>
   </si>
   <si>
     <t>取消订餐</t>
@@ -99,20 +100,14 @@
   </si>
   <si>
     <t>状态显示：已加餐
-按钮显示：取消加餐-1</t>
+按钮不显示                备注框：不显示</t>
   </si>
   <si>
     <t>五点前按下“取消加餐-1”按钮</t>
   </si>
   <si>
     <t>状态显示：未加餐
-按钮显示：确定加餐+1</t>
-  </si>
-  <si>
-    <t>五点后按下“取消加餐-1”按钮</t>
-  </si>
-  <si>
-    <t>界面没有任何反应</t>
+按钮显示：确定加餐+1       备注框：显示</t>
   </si>
   <si>
     <t>用户打开两个窗口并登录成功，且今日已订餐，点击“今日订餐”模块</t>
@@ -122,13 +117,13 @@
   </si>
   <si>
     <t>第一个窗口状态显示：未加餐
-按钮显示：确定加餐+1</t>
+按钮显示：确定加餐+1       备注框：显示</t>
   </si>
   <si>
     <t>第二个窗口再五点前按下“取消加餐-1”按钮</t>
   </si>
   <si>
-    <t>第二个窗口弹框显示“您今日还未订餐”</t>
+    <t>取消订餐失败</t>
   </si>
   <si>
     <t>产生打扫人员</t>
@@ -149,7 +144,13 @@
     <t>五点后点击“今日之星”按钮</t>
   </si>
   <si>
-    <t>弹框显示“今日之星产生成功”</t>
+    <t>今日之星产生成功</t>
+  </si>
+  <si>
+    <t>再次点击“今日之星”按钮</t>
+  </si>
+  <si>
+    <t>今日已产生打扫人员</t>
   </si>
   <si>
     <t>测试管理员多次点击产生打扫卫生的按钮</t>
@@ -161,37 +162,67 @@
     <t>第一个窗口点击“今日之星”按钮</t>
   </si>
   <si>
-    <t>第一个窗口弹框显示“今日之星产生成功”</t>
-  </si>
-  <si>
     <t>第二个窗口再点击“今日之星”按钮</t>
   </si>
   <si>
-    <t>第二个窗口弹框显示“今日已产生打扫人员”</t>
-  </si>
-  <si>
     <t>管理员登录成功，今日未产生打扫人员且今日无人订餐，点击“统计人数”模块</t>
   </si>
   <si>
     <t>点击“今日之星”按钮</t>
   </si>
   <si>
-    <t>弹框显示“今日无人订餐”</t>
+    <t>今日无人订餐</t>
   </si>
   <si>
     <t>获取今日订餐人员信息</t>
   </si>
   <si>
-    <t>管理员登录成功，点击“统计人数”模块，点击“查看详情”按钮</t>
-  </si>
-  <si>
-    <t>显示今日订餐人员的列表和订餐人数与总金额</t>
-  </si>
-  <si>
-    <t>选择部门</t>
-  </si>
-  <si>
-    <t>显示该部门今日订餐人员及该部门订餐人数与总金额</t>
+    <t>管理员登录成功，点击“统计人数”模块（超过十人）</t>
+  </si>
+  <si>
+    <t>界面显示订餐总人数与预计订餐金额</t>
+  </si>
+  <si>
+    <t>鼠标放上“查看详情”按钮</t>
+  </si>
+  <si>
+    <t>显示订餐人员按钮</t>
+  </si>
+  <si>
+    <t>点击“查看详情”</t>
+  </si>
+  <si>
+    <t>显示今日所有订餐人员的详情</t>
+  </si>
+  <si>
+    <t>鼠标放上其中一条订餐信息</t>
+  </si>
+  <si>
+    <t>该订餐信息会放大</t>
+  </si>
+  <si>
+    <t>点击“下一页”</t>
+  </si>
+  <si>
+    <t>显示第二页订餐人员信息</t>
+  </si>
+  <si>
+    <t>点击“所有部门”下拉框</t>
+  </si>
+  <si>
+    <t>出现所有部门</t>
+  </si>
+  <si>
+    <t>选择任意一个部门</t>
+  </si>
+  <si>
+    <t>出现该部门今日订餐人员的信息</t>
+  </si>
+  <si>
+    <t>点击“退出”</t>
+  </si>
+  <si>
+    <t>显示该部门今日订餐总人数与预计订餐金额</t>
   </si>
   <si>
     <t>今日之星</t>
@@ -593,7 +624,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -806,6 +837,19 @@
       <bottom style="thick">
         <color theme="6" tint="-0.25"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -932,7 +976,7 @@
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -962,7 +1006,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,28 +1024,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1010,10 +1054,10 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1071,7 +1115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1138,13 +1182,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1507,17 +1563,17 @@
   <dimension ref="B1:P51"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="25" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="25" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="34" style="25" customWidth="1"/>
-    <col min="5" max="5" width="36.375" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="25"/>
+    <col min="1" max="1" width="1.75" style="29" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="29" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="34" style="29" customWidth="1"/>
+    <col min="5" max="5" width="36.375" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1"/>
@@ -1552,7 +1608,7 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:5">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="9"/>
@@ -1573,7 +1629,7 @@
       </c>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" ht="50" customHeight="1" spans="2:5">
+    <row r="7" ht="64" customHeight="1" spans="2:5">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -1584,7 +1640,7 @@
       <c r="E7" s="14"/>
     </row>
     <row r="8" ht="65" customHeight="1" spans="2:5">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="20"/>
@@ -1594,10 +1650,10 @@
       <c r="E8" s="21"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="2:5">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="2:5">
       <c r="B10" s="1" t="s">
@@ -1630,7 +1686,7 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="2:5">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="9"/>
@@ -1642,7 +1698,7 @@
       </c>
     </row>
     <row r="14" ht="66" customHeight="1" spans="2:5">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="13"/>
@@ -1652,7 +1708,7 @@
       <c r="E14" s="14"/>
     </row>
     <row r="15" ht="83" customHeight="1" spans="2:5">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="13"/>
@@ -1662,7 +1718,7 @@
       <c r="E15" s="14"/>
     </row>
     <row r="16" ht="92" customHeight="1" spans="2:5">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="20"/>
@@ -1672,24 +1728,24 @@
       <c r="E16" s="21"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="2:16">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="2:16">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="2:5">
       <c r="B19"/>
@@ -1723,141 +1779,141 @@
     </row>
     <row r="24" customFormat="1" ht="50" customHeight="1"/>
     <row r="25" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
     </row>
     <row r="28" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
     </row>
     <row r="29" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
     </row>
     <row r="30" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
     </row>
     <row r="31" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
     </row>
     <row r="33" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-    </row>
-    <row r="34" s="25" customFormat="1" ht="30" customHeight="1" spans="2:5">
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-    </row>
-    <row r="35" s="25" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-    </row>
-    <row r="36" s="25" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-    </row>
-    <row r="37" s="25" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-    </row>
-    <row r="38" s="25" customFormat="1" ht="30" customHeight="1" spans="2:5">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-    </row>
-    <row r="39" s="25" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-    </row>
-    <row r="40" s="25" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" s="29" customFormat="1" ht="30" customHeight="1" spans="2:5">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" s="29" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36" s="29" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+    </row>
+    <row r="37" s="29" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+    </row>
+    <row r="38" s="29" customFormat="1" ht="30" customHeight="1" spans="2:5">
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39" s="29" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+    </row>
+    <row r="40" s="29" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -1909,8 +1965,8 @@
   <sheetPr/>
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1963,33 +2019,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="50" customHeight="1" spans="2:5">
+    <row r="6" ht="65" customHeight="1" spans="2:5">
       <c r="B6" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" ht="50" customHeight="1" spans="2:5">
+    <row r="7" ht="69" customHeight="1" spans="2:5">
       <c r="B7" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" ht="50" customHeight="1" spans="2:5">
+    <row r="8" ht="65" customHeight="1" spans="2:5">
       <c r="B8" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="21"/>
     </row>
@@ -2019,7 +2075,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -2036,33 +2092,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" ht="50" customHeight="1" spans="2:5">
+    <row r="14" ht="61" customHeight="1" spans="2:5">
       <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" ht="50" customHeight="1" spans="2:5">
+    <row r="15" ht="64" customHeight="1" spans="2:5">
       <c r="B15" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="14"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
       <c r="B16" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="21"/>
     </row>
@@ -2093,10 +2149,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E22"/>
+  <dimension ref="B1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2112,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -2122,7 +2178,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -2132,13 +2188,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:5">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="9"/>
@@ -2150,154 +2206,164 @@
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" ht="50" customHeight="1" spans="2:5">
+      <c r="B8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" ht="50" customHeight="1" spans="2:5">
-      <c r="B8" s="24" t="s">
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="50" customHeight="1" spans="2:5">
+      <c r="B9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" ht="30" customHeight="1"/>
-    <row r="10" ht="30" customHeight="1" spans="2:5">
-      <c r="B10" s="1" t="s">
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" ht="30" customHeight="1"/>
+    <row r="11" ht="30" customHeight="1" spans="2:5">
+      <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="2:5">
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="2:5">
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="2:5">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="2:5">
+      <c r="B14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" ht="50" customHeight="1" spans="2:5">
-      <c r="B14" s="11" t="s">
+    <row r="15" ht="50" customHeight="1" spans="2:5">
+      <c r="B15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" ht="50" customHeight="1" spans="2:5">
+      <c r="B16" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" ht="50" customHeight="1" spans="2:5">
-      <c r="B15" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" ht="30" customHeight="1"/>
-    <row r="17" ht="30" customHeight="1" spans="2:5">
-      <c r="B17" s="1" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" ht="30" customHeight="1"/>
+    <row r="18" ht="30" customHeight="1" spans="2:5">
+      <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="2:5">
-      <c r="B18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="2:5">
       <c r="B19" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="2:5">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="2:5">
+      <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" ht="50" customHeight="1" spans="2:5">
-      <c r="B21" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="21"/>
-    </row>
-    <row r="22" ht="14.25"/>
+    <row r="22" ht="50" customHeight="1" spans="2:5">
+      <c r="B22" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" ht="14.25"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
@@ -2305,17 +2371,18 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2326,13 +2393,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E8"/>
+  <dimension ref="B1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
     <col min="2" max="3" width="16.225" customWidth="1"/>
@@ -2345,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -2355,7 +2422,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -2365,7 +2432,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -2388,29 +2455,95 @@
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" ht="50" customHeight="1" spans="2:5">
+      <c r="B7" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" ht="50" customHeight="1" spans="2:5">
-      <c r="B7" s="18" t="s">
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" ht="50" customHeight="1" spans="2:5">
+      <c r="B8" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" ht="14.25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="50" customHeight="1" spans="2:5">
+      <c r="B9" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" ht="50" customHeight="1" spans="2:5">
+      <c r="B10" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" ht="50" customHeight="1" spans="2:5">
+      <c r="B11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" ht="50" customHeight="1" spans="2:5">
+      <c r="B12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" ht="50" customHeight="1" spans="2:5">
+      <c r="B13" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" ht="14.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2422,8 +2555,8 @@
   <sheetPr/>
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2439,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -2449,7 +2582,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -2459,7 +2592,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -2478,31 +2611,31 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
       <c r="B6" s="11" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
       <c r="B7" s="15" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E7" s="17"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
       <c r="B8" s="18" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E8" s="21"/>
     </row>
@@ -2512,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
@@ -2522,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -2532,7 +2665,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -2551,31 +2684,31 @@
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:5">
       <c r="B14" s="11" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E14" s="14"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
       <c r="B15" s="15" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="13" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E15" s="17"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
       <c r="B16" s="18" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E16" s="21"/>
     </row>

--- a/2.PreliminaryDesign/订餐测试用例.xlsx
+++ b/2.PreliminaryDesign/订餐测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14250" windowHeight="10920" activeTab="2"/>
+    <workbookView windowWidth="14250" windowHeight="10920" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="订餐" sheetId="1" r:id="rId1"/>
@@ -1562,7 +1562,7 @@
   <sheetPr/>
   <dimension ref="B1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1965,7 +1965,7 @@
   <sheetPr/>
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2151,7 +2151,7 @@
   <sheetPr/>
   <dimension ref="B1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -2555,8 +2555,8 @@
   <sheetPr/>
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/2.PreliminaryDesign/订餐测试用例.xlsx
+++ b/2.PreliminaryDesign/订餐测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12791" windowHeight="10115" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="21288" windowHeight="10524" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="订餐" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>功能描述</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>管理员未产生打扫人员</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>尚未产生</t>
@@ -217,10 +220,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -247,15 +250,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,6 +274,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,7 +303,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,43 +346,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,24 +365,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,19 +402,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,138 +552,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -562,18 +577,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,15 +814,6 @@
       </top>
       <bottom style="thick">
         <color theme="6" tint="-0.25"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,6 +829,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,11 +881,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,32 +907,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,10 +923,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -932,133 +935,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1900,8 +1903,8 @@
   <sheetPr/>
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2319,7 +2322,7 @@
   <sheetPr/>
   <dimension ref="B1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -2411,13 +2414,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E17"/>
+  <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="3.12962962962963" customWidth="1"/>
     <col min="2" max="3" width="16.2222222222222" customWidth="1"/>
@@ -2528,7 +2531,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" ht="30" customHeight="1" spans="2:5">
+    <row r="13" ht="30" customHeight="1" spans="2:8">
       <c r="B13" s="7" t="s">
         <v>6</v>
       </c>
@@ -2539,6 +2542,9 @@
       <c r="E13" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:5">
       <c r="B14" s="11" t="s">
@@ -2546,7 +2552,7 @@
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" s="14"/>
     </row>
@@ -2556,7 +2562,7 @@
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15" s="17"/>
     </row>
@@ -2566,7 +2572,7 @@
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" s="21"/>
     </row>

--- a/2.PreliminaryDesign/订餐测试用例.xlsx
+++ b/2.PreliminaryDesign/订餐测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21288" windowHeight="10524" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="14250" windowHeight="10920" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="订餐" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>功能描述</t>
   </si>
@@ -57,59 +57,68 @@
     <t>五点后</t>
   </si>
   <si>
-    <t>无按钮</t>
+    <t>状态显示：未加餐
+按钮不显示                备注框：不显示</t>
   </si>
   <si>
     <t>五点前按下“确定加餐+1”按钮</t>
+  </si>
+  <si>
+    <t>弹框显示“订餐成功”</t>
+  </si>
+  <si>
+    <t>点击“OK”</t>
+  </si>
+  <si>
+    <t>状态显示：已加餐
+按钮显示：取消加餐-1      备注框：不显示</t>
+  </si>
+  <si>
+    <t>测试用户同一天多次订餐</t>
+  </si>
+  <si>
+    <t>用户打开两个窗口并登录成功，且今日未订餐，点击“今日订餐”模块</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>第一个窗口五点前按下“确定加餐+1”按钮</t>
+  </si>
+  <si>
+    <t>第一个窗口                弹框显示“订餐成功”</t>
+  </si>
+  <si>
+    <t>第二个窗口再五点前按下“确定加餐+1”按钮</t>
+  </si>
+  <si>
+    <t>无反应</t>
+  </si>
+  <si>
+    <t>取消订餐</t>
+  </si>
+  <si>
+    <t>用户取消今日订餐</t>
+  </si>
+  <si>
+    <t>用户登录成功，且今日已订餐，点击“今日订餐”模块</t>
   </si>
   <si>
     <t>状态显示：已加餐
 按钮显示：取消加餐-1       备注框：不显示</t>
   </si>
   <si>
-    <t>测试用户同一天多次订餐</t>
-  </si>
-  <si>
-    <t>用户打开两个窗口并登录成功，且今日未订餐，点击“今日订餐”模块</t>
-  </si>
-  <si>
-    <t>空</t>
-  </si>
-  <si>
-    <t>第一个窗口五点前按下“确定加餐+1”按钮</t>
-  </si>
-  <si>
-    <t>第一个窗口                状态显示：已加餐
-按钮显示：取消加餐-1      备注框：不显示</t>
-  </si>
-  <si>
-    <t>第二个窗口再五点前按下“确定加餐+1”按钮</t>
-  </si>
-  <si>
-    <t>第二个窗口                弹出提示框显示  “您今日已订餐”</t>
-  </si>
-  <si>
-    <t>取消订餐</t>
-  </si>
-  <si>
-    <t>用户取消今日订餐</t>
-  </si>
-  <si>
-    <t>用户登录成功，且今日已订餐，点击“今日订餐”模块</t>
-  </si>
-  <si>
     <t>状态显示：已加餐
-按钮显示：取消加餐-1</t>
+按钮不显示                备注框：不显示</t>
   </si>
   <si>
     <t>五点前按下“取消加餐-1”按钮</t>
   </si>
   <si>
-    <t>状态显示：未加餐
-按钮显示：确定加餐+1</t>
-  </si>
-  <si>
-    <t>界面取消订餐按钮消失</t>
+    <t>弹框显示“取消订餐成功”</t>
+  </si>
+  <si>
+    <t>按下“OK”</t>
   </si>
   <si>
     <t>用户打开两个窗口并登录成功，且今日已订餐，点击“今日订餐”模块</t>
@@ -118,16 +127,12 @@
     <t>第一个窗口五点前按下“取消加餐-1”按钮</t>
   </si>
   <si>
-    <t>第一个窗口状态显示：未加餐
-按钮显示：确定加餐+1</t>
+    <t>第一个窗口                弹框显示“取消订餐成功”</t>
   </si>
   <si>
     <t>第二个窗口再五点前按下“取消加餐-1”按钮</t>
   </si>
   <si>
-    <t>第二个窗口弹框显示“您今日还未订餐”</t>
-  </si>
-  <si>
     <t>产生打扫人员</t>
   </si>
   <si>
@@ -146,7 +151,10 @@
     <t>五点后点击“今日之星”按钮</t>
   </si>
   <si>
-    <t>今日之星产生成功</t>
+    <t>弹框显示“今日之星产生成功”</t>
+  </si>
+  <si>
+    <t>再次点击“今日之星”按钮</t>
   </si>
   <si>
     <t>测试管理员多次点击产生打扫卫生的按钮</t>
@@ -161,9 +169,6 @@
     <t>第二个窗口再点击“今日之星”按钮</t>
   </si>
   <si>
-    <t>未能产生今日之星</t>
-  </si>
-  <si>
     <t>管理员登录成功，今日未产生打扫人员且今日无人订餐，点击“统计人数”模块</t>
   </si>
   <si>
@@ -176,13 +181,43 @@
     <t>管理员登录成功，点击“统计人数”模块，点击“查看详情”按钮</t>
   </si>
   <si>
-    <t>显示今日订餐人员的列表和订餐人数与总金额</t>
-  </si>
-  <si>
-    <t>选择部门</t>
-  </si>
-  <si>
-    <t>显示该部门今日订餐人员及该部门订餐人数与总金额</t>
+    <t>显示今日订餐人员总数与预计订餐总金额</t>
+  </si>
+  <si>
+    <t>鼠标放上“查看详情”按钮</t>
+  </si>
+  <si>
+    <t>显示“订餐人员”按钮</t>
+  </si>
+  <si>
+    <t>点击“订餐人员”按钮</t>
+  </si>
+  <si>
+    <t>显示今日订餐人员的详细信息</t>
+  </si>
+  <si>
+    <t>鼠标放上某条订餐信息</t>
+  </si>
+  <si>
+    <t>该信息被放大</t>
+  </si>
+  <si>
+    <t>点击“下一页”按钮（订餐数超过十条）</t>
+  </si>
+  <si>
+    <t>显示下一页订餐人员信息</t>
+  </si>
+  <si>
+    <t>点击“所有部门”下拉框，选择任意一个部门</t>
+  </si>
+  <si>
+    <t>显示该部门订餐人员详细信息</t>
+  </si>
+  <si>
+    <t>点击“退出”</t>
+  </si>
+  <si>
+    <t>显示该部门今日订餐人员总数与预计订餐总金额</t>
   </si>
   <si>
     <t>今日之星</t>
@@ -220,10 +255,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -265,7 +300,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +329,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -287,15 +353,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,39 +362,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,15 +385,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,13 +427,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -402,12 +437,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -420,174 +617,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -803,6 +838,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color theme="6" tint="-0.25"/>
       </left>
@@ -814,45 +862,6 @@
       </top>
       <bottom style="thick">
         <color theme="6" tint="-0.25"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,6 +886,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,6 +949,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -923,10 +971,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -935,137 +983,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1132,13 +1180,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1498,20 +1564,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:P51"/>
+  <dimension ref="B1:P52"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="25" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="25" customWidth="1"/>
-    <col min="3" max="3" width="17.1296296296296" style="25" customWidth="1"/>
-    <col min="4" max="4" width="34" style="25" customWidth="1"/>
-    <col min="5" max="5" width="36.3796296296296" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="25"/>
+    <col min="1" max="1" width="1.75" style="31" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="31" customWidth="1"/>
+    <col min="3" max="3" width="17.1333333333333" style="31" customWidth="1"/>
+    <col min="4" max="4" width="34" style="31" customWidth="1"/>
+    <col min="5" max="5" width="36.3833333333333" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1"/>
@@ -1546,7 +1612,7 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:5">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="9"/>
@@ -1567,7 +1633,7 @@
       </c>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" ht="50" customHeight="1" spans="2:5">
+    <row r="7" ht="67" customHeight="1" spans="2:5">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -1577,119 +1643,123 @@
       </c>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" ht="65" customHeight="1" spans="2:5">
-      <c r="B8" s="24" t="s">
+    <row r="8" ht="50" customHeight="1" spans="2:5">
+      <c r="B8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" ht="30" customHeight="1" spans="2:5">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="63" customHeight="1" spans="2:5">
+      <c r="B9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="2:5">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="2:5">
+      <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="2:5">
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="2:5">
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="2:5">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="2:5">
+      <c r="B14" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" ht="66" customHeight="1" spans="2:5">
-      <c r="B14" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" ht="83" customHeight="1" spans="2:5">
-      <c r="B15" s="23" t="s">
-        <v>18</v>
+    <row r="15" ht="66" customHeight="1" spans="2:5">
+      <c r="B15" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" ht="92" customHeight="1" spans="2:5">
-      <c r="B16" s="24" t="s">
+    <row r="16" ht="83" customHeight="1" spans="2:5">
+      <c r="B16" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="21"/>
-    </row>
-    <row r="17" ht="30" customHeight="1" spans="2:16">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" ht="92" customHeight="1" spans="2:5">
+      <c r="B17" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="2:16">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-    </row>
-    <row r="19" ht="30" customHeight="1" spans="2:5">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="2:16">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="2:5">
       <c r="B20"/>
@@ -1703,7 +1773,7 @@
       <c r="D21"/>
       <c r="E21"/>
     </row>
-    <row r="22" ht="50" customHeight="1" spans="2:5">
+    <row r="22" ht="30" customHeight="1" spans="2:5">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -1715,146 +1785,152 @@
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" customFormat="1" ht="50" customHeight="1"/>
-    <row r="25" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-    </row>
+    <row r="24" ht="50" customHeight="1" spans="2:5">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" customFormat="1" ht="50" customHeight="1"/>
     <row r="26" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-    </row>
-    <row r="34" s="25" customFormat="1" ht="30" customHeight="1" spans="2:5">
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-    </row>
-    <row r="35" s="25" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-    </row>
-    <row r="36" s="25" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-    </row>
-    <row r="37" s="25" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-    </row>
-    <row r="38" s="25" customFormat="1" ht="30" customHeight="1" spans="2:5">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-    </row>
-    <row r="39" s="25" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-    </row>
-    <row r="40" s="25" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+    </row>
+    <row r="34" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" s="31" customFormat="1" ht="30" customHeight="1" spans="2:5">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+    </row>
+    <row r="36" s="31" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+    </row>
+    <row r="37" s="31" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+    </row>
+    <row r="38" s="31" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+    </row>
+    <row r="39" s="31" customFormat="1" ht="30" customHeight="1" spans="2:5">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" s="31" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+    </row>
+    <row r="41" s="31" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="37">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
@@ -1862,22 +1938,22 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="M18:P18"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="B35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C38:E38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
@@ -1891,6 +1967,7 @@
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1901,26 +1978,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E17"/>
+  <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="3" width="16.2222222222222" customWidth="1"/>
-    <col min="4" max="5" width="34.6296296296296" customWidth="1"/>
+    <col min="2" max="3" width="16.225" customWidth="1"/>
+    <col min="4" max="5" width="34.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15"/>
+    <row r="1" ht="14.25"/>
     <row r="2" ht="30" customHeight="1" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -1930,7 +2007,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -1940,7 +2017,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -1957,112 +2034,122 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="50" customHeight="1" spans="2:5">
+    <row r="6" ht="62" customHeight="1" spans="2:5">
       <c r="B6" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" ht="50" customHeight="1" spans="2:5">
-      <c r="B7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="12"/>
+    <row r="7" ht="62" customHeight="1" spans="2:5">
+      <c r="B7" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="30"/>
       <c r="D7" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="14"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
-      <c r="B8" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" ht="30" customHeight="1"/>
-    <row r="10" ht="30" customHeight="1" spans="2:5">
-      <c r="B10" s="1" t="s">
+      <c r="B8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" ht="67" customHeight="1" spans="2:5">
+      <c r="B9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" ht="30" customHeight="1"/>
+    <row r="11" ht="30" customHeight="1" spans="2:5">
+      <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="2:5">
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="2:5">
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="2:5">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="2:5">
+      <c r="B14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" ht="50" customHeight="1" spans="2:5">
-      <c r="B14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" ht="50" customHeight="1" spans="2:5">
+    <row r="15" ht="63" customHeight="1" spans="2:5">
       <c r="B15" s="11" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E15" s="14"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
-      <c r="B16" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20" t="s">
+      <c r="B16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="21"/>
-    </row>
-    <row r="17" ht="15.15"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" ht="50" customHeight="1" spans="2:5">
+      <c r="B17" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" ht="14.25"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
@@ -2070,13 +2157,14 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2087,26 +2175,26 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E22"/>
+  <dimension ref="B1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="3.62962962962963" customWidth="1"/>
-    <col min="2" max="3" width="16.2222222222222" customWidth="1"/>
-    <col min="4" max="5" width="34.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="3.63333333333333" customWidth="1"/>
+    <col min="2" max="3" width="16.225" customWidth="1"/>
+    <col min="4" max="5" width="34.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15"/>
+    <row r="1" ht="14.25"/>
     <row r="2" ht="30" customHeight="1" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -2116,7 +2204,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -2126,13 +2214,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:5">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="9"/>
@@ -2144,154 +2232,164 @@
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7" s="14"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
-      <c r="B8" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" ht="30" customHeight="1"/>
-    <row r="10" ht="30" customHeight="1" spans="2:5">
-      <c r="B10" s="1" t="s">
+      <c r="B8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="50" customHeight="1" spans="2:5">
+      <c r="B9" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" ht="30" customHeight="1"/>
+    <row r="11" ht="30" customHeight="1" spans="2:5">
+      <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="2:5">
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="2:5">
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="2:5">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="2:5">
+      <c r="B14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" ht="50" customHeight="1" spans="2:5">
-      <c r="B14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="13"/>
-    </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
-      <c r="B15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" ht="30" customHeight="1"/>
-    <row r="17" ht="30" customHeight="1" spans="2:5">
-      <c r="B17" s="1" t="s">
+      <c r="B15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" ht="50" customHeight="1" spans="2:5">
+      <c r="B16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" ht="30" customHeight="1"/>
+    <row r="18" ht="30" customHeight="1" spans="2:5">
+      <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="2:5">
-      <c r="B18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="2:5">
       <c r="B19" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="2:5">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="2:5">
+      <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" ht="50" customHeight="1" spans="2:5">
-      <c r="B21" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="21"/>
-    </row>
-    <row r="22" ht="15.15"/>
+    <row r="22" ht="50" customHeight="1" spans="2:5">
+      <c r="B22" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" ht="14.25"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
@@ -2299,17 +2397,18 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2320,26 +2419,26 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E8"/>
+  <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="3.62962962962963" customWidth="1"/>
-    <col min="2" max="3" width="16.2222222222222" customWidth="1"/>
-    <col min="4" max="5" width="34.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="3.63333333333333" customWidth="1"/>
+    <col min="2" max="3" width="16.225" customWidth="1"/>
+    <col min="4" max="5" width="34.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15"/>
+    <row r="1" ht="14.25"/>
     <row r="2" ht="30" customHeight="1" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -2349,7 +2448,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -2359,7 +2458,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -2378,33 +2477,88 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
       <c r="B6" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
-      <c r="B7" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" ht="15.15"/>
+      <c r="B7" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" ht="50" customHeight="1" spans="2:5">
+      <c r="B8" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="50" customHeight="1" spans="2:5">
+      <c r="B9" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" ht="50" customHeight="1" spans="2:5">
+      <c r="B10" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" ht="50" customHeight="1" spans="2:5">
+      <c r="B11" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" ht="50" customHeight="1" spans="2:5">
+      <c r="B12" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" ht="14.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2416,24 +2570,24 @@
   <sheetPr/>
   <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="3.12962962962963" customWidth="1"/>
-    <col min="2" max="3" width="16.2222222222222" customWidth="1"/>
-    <col min="4" max="5" width="34.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="3.13333333333333" customWidth="1"/>
+    <col min="2" max="3" width="16.225" customWidth="1"/>
+    <col min="4" max="5" width="34.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15"/>
+    <row r="1" ht="14.25"/>
     <row r="2" ht="30" customHeight="1" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -2443,7 +2597,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -2453,7 +2607,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -2472,31 +2626,31 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
       <c r="B6" s="11" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
       <c r="B7" s="15" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="13" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E7" s="17"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
       <c r="B8" s="18" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E8" s="21"/>
     </row>
@@ -2506,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
@@ -2516,7 +2670,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -2526,7 +2680,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -2543,40 +2697,40 @@
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:5">
       <c r="B14" s="11" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E14" s="14"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
       <c r="B15" s="15" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="13" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E15" s="17"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
       <c r="B16" s="18" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E16" s="21"/>
     </row>
-    <row r="17" ht="15.15"/>
+    <row r="17" ht="14.25"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="C2:E2"/>

--- a/2.PreliminaryDesign/订餐测试用例.xlsx
+++ b/2.PreliminaryDesign/订餐测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14250" windowHeight="10920" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="14250" windowHeight="10920" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="订餐" sheetId="1" r:id="rId1"/>
@@ -256,9 +256,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -285,13 +285,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -300,7 +293,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,25 +314,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,17 +329,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,11 +344,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,15 +390,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,6 +437,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -449,169 +521,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,16 +866,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -906,21 +906,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -931,6 +916,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,15 +958,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -971,10 +971,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,139 +983,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1180,18 +1183,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1199,12 +1193,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1566,200 +1554,205 @@
   <sheetPr/>
   <dimension ref="B1:P52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="31" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="31" customWidth="1"/>
-    <col min="3" max="3" width="17.1333333333333" style="31" customWidth="1"/>
-    <col min="4" max="4" width="34" style="31" customWidth="1"/>
-    <col min="5" max="5" width="36.3833333333333" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="31"/>
+    <col min="1" max="1" width="1.75" style="27" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="27" customWidth="1"/>
+    <col min="3" max="3" width="17.1333333333333" style="27" customWidth="1"/>
+    <col min="4" max="4" width="34" style="27" customWidth="1"/>
+    <col min="5" max="5" width="36.3833333333333" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1"/>
+    <row r="1" ht="12" customHeight="1" spans="2:5">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
     <row r="2" ht="30" customHeight="1" spans="2:5">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="2:5">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="2:5">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:5">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="65" customHeight="1" spans="2:5">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" ht="67" customHeight="1" spans="2:5">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" ht="63" customHeight="1" spans="2:5">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="2:5">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="2:5">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="2:5">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="2:5">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:5">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" ht="66" customHeight="1" spans="2:5">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" ht="83" customHeight="1" spans="2:5">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" ht="92" customHeight="1" spans="2:5">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="2:16">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="2:16">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="2:5">
       <c r="B20"/>
@@ -1793,144 +1786,145 @@
     </row>
     <row r="25" customFormat="1" ht="50" customHeight="1"/>
     <row r="26" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
     </row>
     <row r="34" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-    </row>
-    <row r="35" s="31" customFormat="1" ht="30" customHeight="1" spans="2:5">
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-    </row>
-    <row r="36" s="31" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-    </row>
-    <row r="37" s="31" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-    </row>
-    <row r="38" s="31" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-    </row>
-    <row r="39" s="31" customFormat="1" ht="30" customHeight="1" spans="2:5">
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-    </row>
-    <row r="40" s="31" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-    </row>
-    <row r="41" s="31" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+    </row>
+    <row r="35" s="27" customFormat="1" ht="30" customHeight="1" spans="2:5">
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+    </row>
+    <row r="36" s="27" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+    </row>
+    <row r="37" s="27" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+    </row>
+    <row r="38" s="27" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+    </row>
+    <row r="39" s="27" customFormat="1" ht="30" customHeight="1" spans="2:5">
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+    </row>
+    <row r="40" s="27" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+    </row>
+    <row r="41" s="27" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="38">
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
@@ -1980,8 +1974,8 @@
   <sheetPr/>
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1991,165 +1985,176 @@
     <col min="4" max="5" width="34.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
+    <row r="1" ht="14.25" spans="2:5">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
     <row r="2" ht="30" customHeight="1" spans="2:5">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="2:5">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="2:5">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:5">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="62" customHeight="1" spans="2:5">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" ht="62" customHeight="1" spans="2:5">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" ht="67" customHeight="1" spans="2:5">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" ht="30" customHeight="1"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="2:5">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
     <row r="11" ht="30" customHeight="1" spans="2:5">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="2:5">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="2:5">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:5">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" ht="63" customHeight="1" spans="2:5">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" ht="50" customHeight="1" spans="2:5">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" ht="14.25"/>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
@@ -2158,6 +2163,7 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
@@ -2177,8 +2183,8 @@
   <sheetPr/>
   <dimension ref="B1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2188,208 +2194,224 @@
     <col min="4" max="5" width="34.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
+    <row r="1" ht="14.25" spans="2:5">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
     <row r="2" ht="30" customHeight="1" spans="2:5">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="2:5">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="2:5">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:5">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" ht="50" customHeight="1" spans="2:5">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" ht="30" customHeight="1"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="2:5">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
     <row r="11" ht="30" customHeight="1" spans="2:5">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="2:5">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="2:5">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:5">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" ht="30" customHeight="1"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="2:5">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
     <row r="18" ht="30" customHeight="1" spans="2:5">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="2:5">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="2:5">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" ht="30" customHeight="1" spans="2:5">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" ht="50" customHeight="1" spans="2:5">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" ht="14.25"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="22">
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
@@ -2398,12 +2420,14 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
@@ -2421,8 +2445,8 @@
   <sheetPr/>
   <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2432,122 +2456,128 @@
     <col min="4" max="5" width="34.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
+    <row r="1" ht="14.25" spans="2:5">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
     <row r="2" ht="30" customHeight="1" spans="2:5">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="2:5">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="2:5">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:5">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" ht="50" customHeight="1" spans="2:5">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" ht="50" customHeight="1" spans="2:5">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="25"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" ht="50" customHeight="1" spans="2:5">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" ht="50" customHeight="1" spans="2:5">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" ht="14.25"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
@@ -2570,8 +2600,8 @@
   <sheetPr/>
   <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2581,119 +2611,129 @@
     <col min="4" max="5" width="34.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
+    <row r="1" ht="14.25" spans="2:5">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
     <row r="2" ht="30" customHeight="1" spans="2:5">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="2:5">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="2:5">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:5">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" ht="30" customHeight="1"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="2:5">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
     <row r="10" ht="30" customHeight="1" spans="2:5">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="2:5">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="2:5">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="2:8">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="11" t="s">
         <v>8</v>
       </c>
       <c r="H13" t="s">
@@ -2701,38 +2741,39 @@
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:5">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" ht="14.25"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
@@ -2740,6 +2781,7 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>

--- a/2.PreliminaryDesign/订餐测试用例.xlsx
+++ b/2.PreliminaryDesign/订餐测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14250" windowHeight="10920" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="订餐" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>功能描述</t>
   </si>
@@ -157,6 +157,9 @@
     <t>再次点击“今日之星”按钮</t>
   </si>
   <si>
+    <t>弹框显示“已有打扫人员”</t>
+  </si>
+  <si>
     <t>测试管理员多次点击产生打扫卫生的按钮</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
   </si>
   <si>
     <t>点击“今日之星”按钮</t>
+  </si>
+  <si>
+    <t>弹框显示“无人订餐”</t>
   </si>
   <si>
     <t>获取今日订餐人员信息</t>
@@ -255,10 +261,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -293,30 +299,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,7 +313,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,28 +346,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,8 +374,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,6 +411,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -437,133 +443,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,13 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,31 +623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,6 +868,36 @@
       </top>
       <bottom style="thick">
         <color theme="6" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,21 +927,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -916,21 +937,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,6 +952,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -954,15 +969,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -971,10 +977,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,133 +989,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1554,8 +1560,8 @@
   <sheetPr/>
   <dimension ref="B1:P52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1974,8 +1980,8 @@
   <sheetPr/>
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:E12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2183,8 +2189,8 @@
   <sheetPr/>
   <dimension ref="B1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:E20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2278,7 +2284,7 @@
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E9" s="22"/>
     </row>
@@ -2303,7 +2309,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
@@ -2313,7 +2319,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
@@ -2332,7 +2338,7 @@
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
       <c r="B15" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="14" t="s">
@@ -2342,11 +2348,11 @@
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
       <c r="B16" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E16" s="22"/>
     </row>
@@ -2381,7 +2387,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
@@ -2400,11 +2406,11 @@
     </row>
     <row r="22" ht="50" customHeight="1" spans="2:5">
       <c r="B22" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="21" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E22" s="22"/>
     </row>
@@ -2445,7 +2451,7 @@
   <sheetPr/>
   <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
@@ -2467,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
@@ -2477,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -2487,7 +2493,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -2510,67 +2516,67 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" s="15"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
       <c r="B7" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E7" s="18"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
       <c r="B8" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E8" s="18"/>
     </row>
     <row r="9" ht="50" customHeight="1" spans="2:5">
       <c r="B9" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" s="18"/>
     </row>
     <row r="10" ht="50" customHeight="1" spans="2:5">
       <c r="B10" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10" s="18"/>
     </row>
     <row r="11" ht="50" customHeight="1" spans="2:5">
       <c r="B11" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E11" s="18"/>
     </row>
     <row r="12" ht="50" customHeight="1" spans="2:5">
       <c r="B12" s="19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E12" s="22"/>
     </row>
@@ -2600,8 +2606,8 @@
   <sheetPr/>
   <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2622,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
@@ -2632,7 +2638,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -2642,7 +2648,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -2661,31 +2667,31 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
       <c r="B6" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E6" s="15"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
       <c r="B7" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E7" s="18"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
       <c r="B8" s="19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E8" s="22"/>
     </row>
@@ -2700,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
@@ -2710,7 +2716,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
@@ -2720,7 +2726,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
@@ -2737,36 +2743,36 @@
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:5">
       <c r="B14" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" s="15"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
       <c r="B15" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E15" s="18"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
       <c r="B16" s="19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" s="22"/>
     </row>

--- a/2.PreliminaryDesign/订餐测试用例.xlsx
+++ b/2.PreliminaryDesign/订餐测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14250" windowHeight="10920" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="订餐" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>功能描述</t>
   </si>
@@ -72,6 +72,24 @@
   <si>
     <t>状态显示：已加餐
 按钮显示：取消加餐-1      备注框：不显示</t>
+  </si>
+  <si>
+    <t>点击标签</t>
+  </si>
+  <si>
+    <t>标签添加到备注框中</t>
+  </si>
+  <si>
+    <t>再次点击标签</t>
+  </si>
+  <si>
+    <t>标签追加到备注框中</t>
+  </si>
+  <si>
+    <t>多次点击标签（4次以上）</t>
+  </si>
+  <si>
+    <t>提示“已超过20字符长度”</t>
   </si>
   <si>
     <t>测试用户同一天多次订餐</t>
@@ -255,10 +273,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -285,7 +303,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,23 +332,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,7 +347,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,28 +358,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,8 +386,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,19 +431,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -437,187 +455,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,9 +901,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,21 +954,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,26 +976,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -971,10 +989,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,19 +1001,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1004,112 +1022,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1552,19 +1570,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:P52"/>
+  <dimension ref="B1:P55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="1" max="1" width="1.75" style="27" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="27" customWidth="1"/>
-    <col min="3" max="3" width="17.1333333333333" style="27" customWidth="1"/>
+    <col min="3" max="3" width="17.1296296296296" style="27" customWidth="1"/>
     <col min="4" max="4" width="34" style="27" customWidth="1"/>
-    <col min="5" max="5" width="36.3833333333333" style="27" customWidth="1"/>
+    <col min="5" max="5" width="36.3796296296296" style="27" customWidth="1"/>
     <col min="6" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -1647,162 +1665,174 @@
       <c r="E8" s="18"/>
     </row>
     <row r="9" ht="63" customHeight="1" spans="2:5">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="22"/>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="2:5">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="2:5">
-      <c r="B11" s="2" t="s">
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" ht="63" customHeight="1" spans="2:5">
+      <c r="B10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" ht="63" customHeight="1" spans="2:5">
+      <c r="B11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" ht="63" customHeight="1" spans="2:5">
+      <c r="B12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="2:5">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="2:5">
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="2:5">
-      <c r="B12" s="5" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="2:5">
+      <c r="B15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" ht="30" customHeight="1" spans="2:5">
-      <c r="B13" s="5" t="s">
+      <c r="C15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="2:5">
+      <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="2:5">
-      <c r="B14" s="24" t="s">
+      <c r="C16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="2:5">
+      <c r="B17" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" ht="66" customHeight="1" spans="2:5">
-      <c r="B15" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14" t="s">
+    <row r="18" ht="66" customHeight="1" spans="2:5">
+      <c r="B18" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" ht="83" customHeight="1" spans="2:5">
-      <c r="B16" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" ht="92" customHeight="1" spans="2:5">
-      <c r="B17" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="2:16">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-    </row>
-    <row r="19" ht="30" customHeight="1" spans="2:16">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-    </row>
-    <row r="20" ht="30" customHeight="1" spans="2:5">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-    </row>
-    <row r="21" ht="30" customHeight="1" spans="2:5">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-    </row>
-    <row r="22" ht="30" customHeight="1" spans="2:5">
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" ht="83" customHeight="1" spans="2:5">
+      <c r="B19" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" ht="92" customHeight="1" spans="2:5">
+      <c r="B20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="2:16">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+    </row>
+    <row r="22" ht="30" customHeight="1" spans="2:16">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
-    </row>
-    <row r="23" ht="50" customHeight="1" spans="2:5">
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+    </row>
+    <row r="23" ht="30" customHeight="1" spans="2:5">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" ht="50" customHeight="1" spans="2:5">
+    <row r="24" ht="30" customHeight="1" spans="2:5">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" customFormat="1" ht="50" customHeight="1"/>
-    <row r="26" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-    </row>
-    <row r="27" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-    </row>
-    <row r="28" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-    </row>
+    <row r="25" ht="30" customHeight="1" spans="2:5">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" ht="50" customHeight="1" spans="2:5">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" ht="50" customHeight="1" spans="2:5">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" customFormat="1" ht="50" customHeight="1"/>
     <row r="29" customFormat="1" ht="50" customHeight="1" spans="2:5">
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -1839,56 +1869,62 @@
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
     </row>
-    <row r="35" s="27" customFormat="1" ht="30" customHeight="1" spans="2:5">
+    <row r="35" customFormat="1" ht="50" customHeight="1" spans="2:5">
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
     </row>
-    <row r="36" s="27" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-    </row>
-    <row r="37" s="27" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-    </row>
-    <row r="38" s="27" customFormat="1" ht="30" customHeight="1" spans="3:5">
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-    </row>
-    <row r="39" s="27" customFormat="1" ht="30" customHeight="1" spans="2:5">
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-    </row>
-    <row r="40" s="27" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-    </row>
-    <row r="41" s="27" customFormat="1" ht="50" customHeight="1" spans="2:5">
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-    </row>
-    <row r="42" spans="2:3">
+    <row r="36" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+    </row>
+    <row r="37" customFormat="1" ht="50" customHeight="1" spans="2:5">
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+    </row>
+    <row r="38" s="27" customFormat="1" ht="30" customHeight="1" spans="2:5">
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+    </row>
+    <row r="39" s="27" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+    </row>
+    <row r="40" s="27" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+    </row>
+    <row r="41" s="27" customFormat="1" ht="30" customHeight="1" spans="3:5">
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+    </row>
+    <row r="42" s="27" customFormat="1" ht="30" customHeight="1" spans="2:5">
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
-    </row>
-    <row r="43" spans="2:3">
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+    </row>
+    <row r="43" s="27" customFormat="1" ht="50" customHeight="1" spans="2:5">
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
-    </row>
-    <row r="44" spans="2:3">
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+    </row>
+    <row r="44" s="27" customFormat="1" ht="50" customHeight="1" spans="2:5">
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="28"/>
@@ -1922,8 +1958,20 @@
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
     </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="41">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
@@ -1933,24 +1981,24 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
@@ -1962,6 +2010,9 @@
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1978,14 +2029,14 @@
       <selection activeCell="C12" sqref="C12:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="3" width="16.225" customWidth="1"/>
-    <col min="4" max="5" width="34.6333333333333" customWidth="1"/>
+    <col min="2" max="3" width="16.2222222222222" customWidth="1"/>
+    <col min="4" max="5" width="34.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="2:5">
+    <row r="1" ht="15.15" spans="2:5">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1996,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
@@ -2006,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -2016,7 +2067,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -2039,7 +2090,7 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E6" s="15"/>
     </row>
@@ -2049,23 +2100,23 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E7" s="15"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
       <c r="B8" s="12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E8" s="15"/>
     </row>
     <row r="9" ht="67" customHeight="1" spans="2:5">
       <c r="B9" s="19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="21" t="s">
@@ -2084,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
@@ -2094,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
@@ -2104,7 +2155,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
@@ -2123,35 +2174,35 @@
     </row>
     <row r="15" ht="63" customHeight="1" spans="2:5">
       <c r="B15" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E15" s="15"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
       <c r="B16" s="12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E16" s="15"/>
     </row>
     <row r="17" ht="50" customHeight="1" spans="2:5">
       <c r="B17" s="19" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E17" s="22"/>
     </row>
-    <row r="18" ht="14.25"/>
+    <row r="18" ht="15.15"/>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="B1:E1"/>
@@ -2187,14 +2238,14 @@
       <selection activeCell="C20" sqref="C20:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="3.63333333333333" customWidth="1"/>
-    <col min="2" max="3" width="16.225" customWidth="1"/>
-    <col min="4" max="5" width="34.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="3.62962962962963" customWidth="1"/>
+    <col min="2" max="3" width="16.2222222222222" customWidth="1"/>
+    <col min="4" max="5" width="34.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="2:5">
+    <row r="1" ht="15.15" spans="2:5">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2205,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
@@ -2215,7 +2266,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -2225,7 +2276,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -2248,7 +2299,7 @@
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E6" s="15"/>
     </row>
@@ -2258,27 +2309,27 @@
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E7" s="15"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
       <c r="B8" s="16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="23" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E8" s="18"/>
     </row>
     <row r="9" ht="50" customHeight="1" spans="2:5">
       <c r="B9" s="26" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E9" s="22"/>
     </row>
@@ -2293,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
@@ -2303,7 +2354,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
@@ -2313,7 +2364,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
@@ -2332,21 +2383,21 @@
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
       <c r="B15" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E15" s="15"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
       <c r="B16" s="19" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E16" s="22"/>
     </row>
@@ -2361,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
@@ -2371,7 +2422,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
@@ -2381,7 +2432,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
@@ -2400,15 +2451,15 @@
     </row>
     <row r="22" ht="50" customHeight="1" spans="2:5">
       <c r="B22" s="19" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" ht="14.25"/>
+    <row r="23" ht="15.15"/>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="B1:E1"/>
@@ -2449,14 +2500,14 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="3.63333333333333" customWidth="1"/>
-    <col min="2" max="3" width="16.225" customWidth="1"/>
-    <col min="4" max="5" width="34.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="3.62962962962963" customWidth="1"/>
+    <col min="2" max="3" width="16.2222222222222" customWidth="1"/>
+    <col min="4" max="5" width="34.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="2:5">
+    <row r="1" ht="15.15" spans="2:5">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2467,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
@@ -2477,7 +2528,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -2487,7 +2538,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -2506,75 +2557,75 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
       <c r="B6" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="14" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E6" s="15"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
       <c r="B7" s="16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="23" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E7" s="18"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
       <c r="B8" s="16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="23" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E8" s="18"/>
     </row>
     <row r="9" ht="50" customHeight="1" spans="2:5">
       <c r="B9" s="16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="23" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E9" s="18"/>
     </row>
     <row r="10" ht="50" customHeight="1" spans="2:5">
       <c r="B10" s="16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="23" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E10" s="18"/>
     </row>
     <row r="11" ht="50" customHeight="1" spans="2:5">
       <c r="B11" s="16" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="23" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E11" s="18"/>
     </row>
     <row r="12" ht="50" customHeight="1" spans="2:5">
       <c r="B12" s="19" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="21" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" ht="14.25"/>
+    <row r="13" ht="15.15"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="B1:E1"/>
@@ -2600,18 +2651,18 @@
   <sheetPr/>
   <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="3.13333333333333" customWidth="1"/>
-    <col min="2" max="3" width="16.225" customWidth="1"/>
-    <col min="4" max="5" width="34.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="3.12962962962963" customWidth="1"/>
+    <col min="2" max="3" width="16.2222222222222" customWidth="1"/>
+    <col min="4" max="5" width="34.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="2:5">
+    <row r="1" ht="15.15" spans="2:5">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2622,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
@@ -2632,7 +2683,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -2642,7 +2693,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -2661,31 +2712,31 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="2:5">
       <c r="B6" s="12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E6" s="15"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="2:5">
       <c r="B7" s="16" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E7" s="18"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="2:5">
       <c r="B8" s="19" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="21" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E8" s="22"/>
     </row>
@@ -2700,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
@@ -2710,7 +2761,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
@@ -2720,7 +2771,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
@@ -2737,40 +2788,40 @@
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:5">
       <c r="B14" s="12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="14" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E14" s="15"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:5">
       <c r="B15" s="16" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="14" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E15" s="18"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:5">
       <c r="B16" s="19" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" ht="14.25"/>
+    <row r="17" ht="15.15"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="B1:E1"/>
